--- a/Python/RATORI/modules/ground/Map(Matvey).xlsx
+++ b/Python/RATORI/modules/ground/Map(Matvey).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Programs\HardChildhood\Python\RATORI\modules\ground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1FE6EC-6415-4A8A-B41A-CF7AC9316FBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0104F00E-63E1-4540-968D-CFCB4D664FFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{48B9F93F-DA1F-4EA8-8D5C-8E8FD0996268}"/>
   </bookViews>
@@ -1155,15 +1155,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>24195</xdr:colOff>
+      <xdr:colOff>7867</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>660</xdr:rowOff>
+      <xdr:rowOff>1300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>23781</xdr:colOff>
+      <xdr:colOff>7453</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>1199</xdr:rowOff>
+      <xdr:rowOff>1839</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1192,8 +1192,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1234430" y="381660"/>
-          <a:ext cx="7709233" cy="7710186"/>
+          <a:off x="1227067" y="382300"/>
+          <a:ext cx="7750215" cy="7751168"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10485,8 +10485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFC4E29-FCB9-49C4-B986-1D2BB0FB2636}">
   <dimension ref="B2:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="SGS6743" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="DCY134" sqref="DCY134:SME6766"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Python/RATORI/modules/ground/Map(Matvey).xlsx
+++ b/Python/RATORI/modules/ground/Map(Matvey).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Programs\HardChildhood\Python\RATORI\modules\ground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D62FA4D-A3B1-4994-AEA1-7C7268FD5777}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3407FA18-1F78-405B-8510-33ABC201960C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{48B9F93F-DA1F-4EA8-8D5C-8E8FD0996268}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48B9F93F-DA1F-4EA8-8D5C-8E8FD0996268}"/>
   </bookViews>
   <sheets>
     <sheet name="Matvey" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1136,15 +1143,15 @@
       <c r="BR3" s="11"/>
       <c r="BS3" s="1">
         <f ca="1">RANDBETWEEN(0,9)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BT3" s="1" t="str">
         <f ca="1">TEXT(BS3,"00")</f>
-        <v>06</v>
+        <v>05</v>
       </c>
       <c r="BU3" t="str">
         <f ca="1">CONCATENATE("10",BT3)</f>
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="4" spans="2:73" x14ac:dyDescent="0.25">
@@ -1359,11 +1366,11 @@
     <row r="5" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1407', '1414', '1415', '1402', '1412', '1405', '1411', '1404', '1404', '1412', '1409', '1410', '1408', '1409', '1411', '1407', '1405', '1405', '1412', '1401', '1404', '1410', '1412', '1407', '1405', '1411', '1400', '1406', '1411', '1415', '1406', '0001', '0001', '0001', '0001', '0001', '0001', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'1413', '1414', '1410', '1401', '1410', '1414', '1410', '1413', '1412', '1414', '1411', '1402', '1412', '1406', '1402', '1413', '1415', '1408', '1407', '1412', '1408', '1400', '1413', '1401', '1406', '1412', '1412', '1407', '1403', '1407', '1410', '0001', '0001', '0001', '0001', '0001', '0001', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1407', '1414', '1415', '1402', '1412', '1405', '1411', '1404', '1404', '1412', '1409', '1410', '1408', '1409', '1411', '1407', '1405', '1405', '1412', '1401', '1404', '1410', '1412', '1407', '1405', '1411', '1400', '1406', '1411', '1415', '1406', '0001', '0001', '0001', '0001', '0001', '0001', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['1413', '1414', '1410', '1401', '1410', '1414', '1410', '1413', '1412', '1414', '1411', '1402', '1412', '1406', '1402', '1413', '1415', '1408', '1407', '1412', '1408', '1400', '1413', '1401', '1406', '1412', '1412', '1407', '1403', '1407', '1410', '0001', '0001', '0001', '0001', '0001', '0001', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>4</v>
@@ -1373,127 +1380,127 @@
       </c>
       <c r="F5" s="17" t="str">
         <f ca="1">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
+        <v>1413</v>
+      </c>
+      <c r="G5" s="17" t="str">
+        <f t="shared" ref="G5:AP12" ca="1" si="2">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
+        <v>1414</v>
+      </c>
+      <c r="H5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1410</v>
+      </c>
+      <c r="I5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1401</v>
+      </c>
+      <c r="J5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1410</v>
+      </c>
+      <c r="K5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1414</v>
+      </c>
+      <c r="L5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1410</v>
+      </c>
+      <c r="M5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1413</v>
+      </c>
+      <c r="N5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1412</v>
+      </c>
+      <c r="O5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1414</v>
+      </c>
+      <c r="P5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1411</v>
+      </c>
+      <c r="Q5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1402</v>
+      </c>
+      <c r="R5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1412</v>
+      </c>
+      <c r="S5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1406</v>
+      </c>
+      <c r="T5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1402</v>
+      </c>
+      <c r="U5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1413</v>
+      </c>
+      <c r="V5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1415</v>
+      </c>
+      <c r="W5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1408</v>
+      </c>
+      <c r="X5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>1407</v>
       </c>
-      <c r="G5" s="17" t="str">
-        <f t="shared" ref="G5:AQ12" ca="1" si="2">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
-        <v>1414</v>
-      </c>
-      <c r="H5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1415</v>
-      </c>
-      <c r="I5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1402</v>
-      </c>
-      <c r="J5" s="17" t="str">
+      <c r="Y5" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>1412</v>
       </c>
-      <c r="K5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1405</v>
-      </c>
-      <c r="L5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1411</v>
-      </c>
-      <c r="M5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1404</v>
-      </c>
-      <c r="N5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1404</v>
-      </c>
-      <c r="O5" s="17" t="str">
+      <c r="Z5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1408</v>
+      </c>
+      <c r="AA5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="AB5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1413</v>
+      </c>
+      <c r="AC5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1401</v>
+      </c>
+      <c r="AD5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1406</v>
+      </c>
+      <c r="AE5" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>1412</v>
       </c>
-      <c r="P5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1409</v>
-      </c>
-      <c r="Q5" s="17" t="str">
+      <c r="AF5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1412</v>
+      </c>
+      <c r="AG5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1407</v>
+      </c>
+      <c r="AH5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1403</v>
+      </c>
+      <c r="AI5" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1407</v>
+      </c>
+      <c r="AJ5" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>1410</v>
-      </c>
-      <c r="R5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1408</v>
-      </c>
-      <c r="S5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1409</v>
-      </c>
-      <c r="T5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1411</v>
-      </c>
-      <c r="U5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1407</v>
-      </c>
-      <c r="V5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1405</v>
-      </c>
-      <c r="W5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1405</v>
-      </c>
-      <c r="X5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1412</v>
-      </c>
-      <c r="Y5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1401</v>
-      </c>
-      <c r="Z5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1404</v>
-      </c>
-      <c r="AA5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1410</v>
-      </c>
-      <c r="AB5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1412</v>
-      </c>
-      <c r="AC5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1407</v>
-      </c>
-      <c r="AD5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1405</v>
-      </c>
-      <c r="AE5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1411</v>
-      </c>
-      <c r="AF5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1400</v>
-      </c>
-      <c r="AG5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1406</v>
-      </c>
-      <c r="AH5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1411</v>
-      </c>
-      <c r="AI5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1415</v>
-      </c>
-      <c r="AJ5" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1406</v>
       </c>
       <c r="AK5" s="21" t="s">
         <v>21</v>
@@ -1599,11 +1606,11 @@
     <row r="6" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '1401', '1404', '1412', '1412', '1407', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '1404', '1403', '1403', '1408', '1414', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '1401', '1404', '1412', '1412', '1407', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '1404', '1403', '1403', '1408', '1414', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>4</v>
@@ -1709,23 +1716,23 @@
       </c>
       <c r="AL6" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="AM6" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="AN6" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1412</v>
+        <v>1403</v>
       </c>
       <c r="AO6" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="AP6" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1407</v>
+        <v>1414</v>
       </c>
       <c r="AQ6" s="19" t="s">
         <v>22</v>
@@ -1811,25 +1818,25 @@
       <c r="BR6" s="4"/>
       <c r="BS6" t="str">
         <f ca="1">CONCATENATE("10",TEXT(RANDBETWEEN(0,9),"00"))</f>
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="BT6" t="str">
         <f t="shared" ref="BT6:BU16" ca="1" si="3">CONCATENATE("10",TEXT(RANDBETWEEN(0,9),"00"))</f>
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="BU6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="7" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1413', '1413', '1410', '0001', '1400', '1415', '1411', '1408', '1412', '1402', '1411', '1405', '1404', '1404', '1409', '1413', '1408', '1404', '0001', '1411', '1411', '1406', '1414', '1402', '1409', '1407', '1404', '1411', '1408', '1402', '1405', '1412', '1412', '1401', '1406', '1402', '1411', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'1415', '1402', '1403', '0001', '1404', '1406', '1403', '1408', '1410', '1402', '1402', '1407', '1407', '1408', '1404', '1414', '1401', '1405', '0001', '1411', '1404', '1403', '1410', '1403', '1405', '1413', '1412', '1404', '1408', '1409', '1401', '1411', '1408', '1405', '1414', '1415', '1414', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1413', '1413', '1410', '0001', '1400', '1415', '1411', '1408', '1412', '1402', '1411', '1405', '1404', '1404', '1409', '1413', '1408', '1404', '0001', '1411', '1411', '1406', '1414', '1402', '1409', '1407', '1404', '1411', '1408', '1402', '1405', '1412', '1412', '1401', '1406', '1402', '1411', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['1415', '1402', '1403', '0001', '1404', '1406', '1403', '1408', '1410', '1402', '1402', '1407', '1407', '1408', '1404', '1414', '1401', '1405', '0001', '1411', '1404', '1403', '1410', '1403', '1405', '1413', '1412', '1404', '1408', '1409', '1401', '1411', '1408', '1405', '1414', '1415', '1414', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>4</v>
@@ -1838,150 +1845,150 @@
         <v>4</v>
       </c>
       <c r="F7" s="17" t="str">
-        <f t="shared" ref="F6:U21" ca="1" si="4">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
+        <f t="shared" ref="F7:U21" ca="1" si="4">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
+        <v>1415</v>
+      </c>
+      <c r="G7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1402</v>
+      </c>
+      <c r="H7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1403</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1404</v>
+      </c>
+      <c r="K7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1406</v>
+      </c>
+      <c r="L7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1403</v>
+      </c>
+      <c r="M7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1408</v>
+      </c>
+      <c r="N7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1410</v>
+      </c>
+      <c r="O7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1402</v>
+      </c>
+      <c r="P7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1402</v>
+      </c>
+      <c r="Q7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1407</v>
+      </c>
+      <c r="R7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1407</v>
+      </c>
+      <c r="S7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1408</v>
+      </c>
+      <c r="T7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1404</v>
+      </c>
+      <c r="U7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1414</v>
+      </c>
+      <c r="V7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1401</v>
+      </c>
+      <c r="W7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1405</v>
+      </c>
+      <c r="X7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1411</v>
+      </c>
+      <c r="Z7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1404</v>
+      </c>
+      <c r="AA7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1403</v>
+      </c>
+      <c r="AB7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1410</v>
+      </c>
+      <c r="AC7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1403</v>
+      </c>
+      <c r="AD7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1405</v>
+      </c>
+      <c r="AE7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>1413</v>
       </c>
-      <c r="G7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1413</v>
-      </c>
-      <c r="H7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1410</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1400</v>
-      </c>
-      <c r="K7" s="17" t="str">
+      <c r="AF7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1412</v>
+      </c>
+      <c r="AG7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1404</v>
+      </c>
+      <c r="AH7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1408</v>
+      </c>
+      <c r="AI7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1409</v>
+      </c>
+      <c r="AJ7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1401</v>
+      </c>
+      <c r="AK7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1411</v>
+      </c>
+      <c r="AL7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1408</v>
+      </c>
+      <c r="AM7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1405</v>
+      </c>
+      <c r="AN7" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1414</v>
+      </c>
+      <c r="AO7" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>1415</v>
       </c>
-      <c r="L7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1411</v>
-      </c>
-      <c r="M7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1408</v>
-      </c>
-      <c r="N7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1412</v>
-      </c>
-      <c r="O7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1402</v>
-      </c>
-      <c r="P7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1411</v>
-      </c>
-      <c r="Q7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1405</v>
-      </c>
-      <c r="R7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1404</v>
-      </c>
-      <c r="S7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1404</v>
-      </c>
-      <c r="T7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1409</v>
-      </c>
-      <c r="U7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1413</v>
-      </c>
-      <c r="V7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1408</v>
-      </c>
-      <c r="W7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1404</v>
-      </c>
-      <c r="X7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1411</v>
-      </c>
-      <c r="Z7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1411</v>
-      </c>
-      <c r="AA7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1406</v>
-      </c>
-      <c r="AB7" s="17" t="str">
+      <c r="AP7" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>1414</v>
-      </c>
-      <c r="AC7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1402</v>
-      </c>
-      <c r="AD7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1409</v>
-      </c>
-      <c r="AE7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1407</v>
-      </c>
-      <c r="AF7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1404</v>
-      </c>
-      <c r="AG7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1411</v>
-      </c>
-      <c r="AH7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1408</v>
-      </c>
-      <c r="AI7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1402</v>
-      </c>
-      <c r="AJ7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1405</v>
-      </c>
-      <c r="AK7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1412</v>
-      </c>
-      <c r="AL7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1412</v>
-      </c>
-      <c r="AM7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1401</v>
-      </c>
-      <c r="AN7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1406</v>
-      </c>
-      <c r="AO7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1402</v>
-      </c>
-      <c r="AP7" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1411</v>
       </c>
       <c r="AQ7" s="19" t="s">
         <v>22</v>
@@ -2067,25 +2074,25 @@
       <c r="BR7" s="4"/>
       <c r="BS7" t="str">
         <f t="shared" ref="BS7:BS16" ca="1" si="5">CONCATENATE("10",TEXT(RANDBETWEEN(0,9),"00"))</f>
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="BT7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="BU7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1008</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="8" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1406', '1409', '1408', '0001', '1405', '1400', '1405', '1408', '1415', '1404', '1414', '1402', '1406', '1401', '1405', '1404', '1409', '1414', '0001', '1401', '1412', '1403', '1408', '1415', '1401', '1404', '1408', '1403', '1400', '1406', '1413', '1404', '1406', '1409', '1409', '1408', '1414', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'1411', '1409', '1409', '0001', '1409', '1405', '1406', '1404', '1410', '1408', '1401', '1411', '1400', '1415', '1403', '1411', '1409', '1404', '0001', '1407', '1410', '1410', '1414', '1405', '1411', '1403', '1414', '1410', '1403', '1410', '1407', '1413', '1412', '1410', '1408', '1408', '1405', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1406', '1409', '1408', '0001', '1405', '1400', '1405', '1408', '1415', '1404', '1414', '1402', '1406', '1401', '1405', '1404', '1409', '1414', '0001', '1401', '1412', '1403', '1408', '1415', '1401', '1404', '1408', '1403', '1400', '1406', '1413', '1404', '1406', '1409', '1409', '1408', '1414', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['1411', '1409', '1409', '0001', '1409', '1405', '1406', '1404', '1410', '1408', '1401', '1411', '1400', '1415', '1403', '1411', '1409', '1404', '0001', '1407', '1410', '1410', '1414', '1405', '1411', '1403', '1414', '1410', '1403', '1410', '1407', '1413', '1412', '1410', '1408', '1408', '1405', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>4</v>
@@ -2095,149 +2102,149 @@
       </c>
       <c r="F8" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
+        <v>1411</v>
+      </c>
+      <c r="G8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1409</v>
+      </c>
+      <c r="H8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1409</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1409</v>
+      </c>
+      <c r="K8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1405</v>
+      </c>
+      <c r="L8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>1406</v>
       </c>
-      <c r="G8" s="17" t="str">
+      <c r="M8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1404</v>
+      </c>
+      <c r="N8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1410</v>
+      </c>
+      <c r="O8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1408</v>
+      </c>
+      <c r="P8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1401</v>
+      </c>
+      <c r="Q8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1411</v>
+      </c>
+      <c r="R8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="S8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1415</v>
+      </c>
+      <c r="T8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1403</v>
+      </c>
+      <c r="U8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1411</v>
+      </c>
+      <c r="V8" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>1409</v>
       </c>
-      <c r="H8" s="17" t="str">
+      <c r="W8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1404</v>
+      </c>
+      <c r="X8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1407</v>
+      </c>
+      <c r="Z8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1410</v>
+      </c>
+      <c r="AA8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1410</v>
+      </c>
+      <c r="AB8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1414</v>
+      </c>
+      <c r="AC8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1405</v>
+      </c>
+      <c r="AD8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1411</v>
+      </c>
+      <c r="AE8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1403</v>
+      </c>
+      <c r="AF8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1414</v>
+      </c>
+      <c r="AG8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1410</v>
+      </c>
+      <c r="AH8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1403</v>
+      </c>
+      <c r="AI8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1410</v>
+      </c>
+      <c r="AJ8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1407</v>
+      </c>
+      <c r="AK8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1413</v>
+      </c>
+      <c r="AL8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1412</v>
+      </c>
+      <c r="AM8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1410</v>
+      </c>
+      <c r="AN8" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>1408</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="17" t="str">
+      <c r="AO8" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1408</v>
+      </c>
+      <c r="AP8" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>1405</v>
-      </c>
-      <c r="K8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1400</v>
-      </c>
-      <c r="L8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1405</v>
-      </c>
-      <c r="M8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1408</v>
-      </c>
-      <c r="N8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1415</v>
-      </c>
-      <c r="O8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1404</v>
-      </c>
-      <c r="P8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1414</v>
-      </c>
-      <c r="Q8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1402</v>
-      </c>
-      <c r="R8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1406</v>
-      </c>
-      <c r="S8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1401</v>
-      </c>
-      <c r="T8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1405</v>
-      </c>
-      <c r="U8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1404</v>
-      </c>
-      <c r="V8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1409</v>
-      </c>
-      <c r="W8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1414</v>
-      </c>
-      <c r="X8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1401</v>
-      </c>
-      <c r="Z8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1412</v>
-      </c>
-      <c r="AA8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1403</v>
-      </c>
-      <c r="AB8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1408</v>
-      </c>
-      <c r="AC8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1415</v>
-      </c>
-      <c r="AD8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1401</v>
-      </c>
-      <c r="AE8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1404</v>
-      </c>
-      <c r="AF8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1408</v>
-      </c>
-      <c r="AG8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1403</v>
-      </c>
-      <c r="AH8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1400</v>
-      </c>
-      <c r="AI8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1406</v>
-      </c>
-      <c r="AJ8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1413</v>
-      </c>
-      <c r="AK8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1404</v>
-      </c>
-      <c r="AL8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1406</v>
-      </c>
-      <c r="AM8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1409</v>
-      </c>
-      <c r="AN8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1409</v>
-      </c>
-      <c r="AO8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1408</v>
-      </c>
-      <c r="AP8" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1414</v>
       </c>
       <c r="AQ8" s="19" t="s">
         <v>22</v>
@@ -2323,25 +2330,25 @@
       <c r="BR8" s="4"/>
       <c r="BS8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="BT8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="BU8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1007</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="9" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1404', '1403', '1408', '0014', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '1408', '1405', '1400', '1415', '1401', '0002', '0002', '0012', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'1402', '1408', '1412', '0014', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '1415', '1415', '1410', '1409', '1406', '0002', '0002', '0012', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1404', '1403', '1408', '0014', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '1408', '1405', '1400', '1415', '1401', '0002', '0002', '0012', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['1402', '1408', '1412', '0014', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '1415', '1415', '1410', '1409', '1406', '0002', '0002', '0012', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>4</v>
@@ -2351,15 +2358,15 @@
       </c>
       <c r="F9" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="G9" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="H9" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>26</v>
@@ -2444,23 +2451,23 @@
       </c>
       <c r="AJ9" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1408</v>
+        <v>1415</v>
       </c>
       <c r="AK9" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1405</v>
+        <v>1415</v>
       </c>
       <c r="AL9" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1400</v>
+        <v>1410</v>
       </c>
       <c r="AM9" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="AN9" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1401</v>
+        <v>1406</v>
       </c>
       <c r="AO9" s="21" t="s">
         <v>22</v>
@@ -2552,25 +2559,25 @@
       <c r="BR9" s="4"/>
       <c r="BS9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="BT9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="BU9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="10" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1408', '1407', '1413', '0001', '1409', '1403', '1407', '1405', '1405', '1412', '1408', '1406', '1402', '1412', '1406', '1414', '1411', '1406', '0001', '1406', '1406', '1411', '1404', '1415', '1414', '1411', '1406', '1414', '1401', '0002', '1404', '1408', '1404', '1403', '1401', '0002', '1402', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'1408', '1414', '1412', '0001', '1409', '1400', '1402', '1400', '1409', '1405', '1408', '1410', '1407', '1405', '1409', '1411', '1400', '1403', '0001', '1407', '1415', '1404', '1410', '1407', '1402', '1404', '1410', '1406', '1401', '0002', '1410', '1410', '1413', '1406', '1400', '0002', '1409', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1408', '1407', '1413', '0001', '1409', '1403', '1407', '1405', '1405', '1412', '1408', '1406', '1402', '1412', '1406', '1414', '1411', '1406', '0001', '1406', '1406', '1411', '1404', '1415', '1414', '1411', '1406', '1414', '1401', '0002', '1404', '1408', '1404', '1403', '1401', '0002', '1402', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['1408', '1414', '1412', '0001', '1409', '1400', '1402', '1400', '1409', '1405', '1408', '1410', '1407', '1405', '1409', '1411', '1400', '1403', '0001', '1407', '1415', '1404', '1410', '1407', '1402', '1404', '1410', '1406', '1401', '0002', '1410', '1410', '1413', '1406', '1400', '0002', '1409', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>4</v>
@@ -2584,143 +2591,143 @@
       </c>
       <c r="G10" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
+        <v>1414</v>
+      </c>
+      <c r="H10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1412</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1409</v>
+      </c>
+      <c r="K10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="L10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1402</v>
+      </c>
+      <c r="M10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="N10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1409</v>
+      </c>
+      <c r="O10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1405</v>
+      </c>
+      <c r="P10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1408</v>
+      </c>
+      <c r="Q10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1410</v>
+      </c>
+      <c r="R10" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>1407</v>
       </c>
-      <c r="H10" s="17" t="str">
+      <c r="S10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1405</v>
+      </c>
+      <c r="T10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1409</v>
+      </c>
+      <c r="U10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1411</v>
+      </c>
+      <c r="V10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="W10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1403</v>
+      </c>
+      <c r="X10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1407</v>
+      </c>
+      <c r="Z10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1415</v>
+      </c>
+      <c r="AA10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1404</v>
+      </c>
+      <c r="AB10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1410</v>
+      </c>
+      <c r="AC10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1407</v>
+      </c>
+      <c r="AD10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1402</v>
+      </c>
+      <c r="AE10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1404</v>
+      </c>
+      <c r="AF10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1410</v>
+      </c>
+      <c r="AG10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1406</v>
+      </c>
+      <c r="AH10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1401</v>
+      </c>
+      <c r="AI10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1410</v>
+      </c>
+      <c r="AK10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1410</v>
+      </c>
+      <c r="AL10" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>1413</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="17" t="str">
+      <c r="AM10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1406</v>
+      </c>
+      <c r="AN10" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="AO10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP10" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>1409</v>
-      </c>
-      <c r="K10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1403</v>
-      </c>
-      <c r="L10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1407</v>
-      </c>
-      <c r="M10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1405</v>
-      </c>
-      <c r="N10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1405</v>
-      </c>
-      <c r="O10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1412</v>
-      </c>
-      <c r="P10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1408</v>
-      </c>
-      <c r="Q10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1406</v>
-      </c>
-      <c r="R10" s="20" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1402</v>
-      </c>
-      <c r="S10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1412</v>
-      </c>
-      <c r="T10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1406</v>
-      </c>
-      <c r="U10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1414</v>
-      </c>
-      <c r="V10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1411</v>
-      </c>
-      <c r="W10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1406</v>
-      </c>
-      <c r="X10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1406</v>
-      </c>
-      <c r="Z10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1406</v>
-      </c>
-      <c r="AA10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1411</v>
-      </c>
-      <c r="AB10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1404</v>
-      </c>
-      <c r="AC10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1415</v>
-      </c>
-      <c r="AD10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1414</v>
-      </c>
-      <c r="AE10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1411</v>
-      </c>
-      <c r="AF10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1406</v>
-      </c>
-      <c r="AG10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1414</v>
-      </c>
-      <c r="AH10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1401</v>
-      </c>
-      <c r="AI10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1404</v>
-      </c>
-      <c r="AK10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1408</v>
-      </c>
-      <c r="AL10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1404</v>
-      </c>
-      <c r="AM10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1403</v>
-      </c>
-      <c r="AN10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1401</v>
-      </c>
-      <c r="AO10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP10" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1402</v>
       </c>
       <c r="AQ10" s="19" t="s">
         <v>22</v>
@@ -2806,25 +2813,25 @@
       <c r="BR10" s="4"/>
       <c r="BS10" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="BT10" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="BU10" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1006</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="11" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1415', '1405', '1410', '0001', '1415', '1402', '1413', '1401', '1410', '1402', '1404', '1413', '1407', '1402', '1413', '1415', '1401', '1413', '0001', '1411', '1408', '1405', '1414', '1400', '1410', '1403', '1412', '1401', '1410', '0002', '1400', '1400', '1400', '1415', '1405', '0002', '1410', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'1413', '1412', '1411', '0001', '1411', '1407', '1402', '1401', '1411', '1407', '1409', '1410', '1406', '1414', '1408', '1404', '1410', '1407', '0001', '1400', '1410', '1406', '1404', '1402', '1412', '1404', '1414', '1400', '1415', '0002', '1403', '1411', '1415', '1400', '1404', '0002', '1410', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1415', '1405', '1410', '0001', '1415', '1402', '1413', '1401', '1410', '1402', '1404', '1413', '1407', '1402', '1413', '1415', '1401', '1413', '0001', '1411', '1408', '1405', '1414', '1400', '1410', '1403', '1412', '1401', '1410', '0002', '1400', '1400', '1400', '1415', '1405', '0002', '1410', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['1413', '1412', '1411', '0001', '1411', '1407', '1402', '1401', '1411', '1407', '1409', '1410', '1406', '1414', '1408', '1404', '1410', '1407', '0001', '1400', '1410', '1406', '1404', '1402', '1412', '1404', '1414', '1400', '1415', '0002', '1403', '1411', '1415', '1400', '1404', '0002', '1410', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>4</v>
@@ -2834,140 +2841,140 @@
       </c>
       <c r="F11" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
+        <v>1413</v>
+      </c>
+      <c r="G11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1412</v>
+      </c>
+      <c r="H11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1411</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1411</v>
+      </c>
+      <c r="K11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1407</v>
+      </c>
+      <c r="L11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1402</v>
+      </c>
+      <c r="M11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1401</v>
+      </c>
+      <c r="N11" s="22" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1411</v>
+      </c>
+      <c r="O11" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1407</v>
+      </c>
+      <c r="P11" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1409</v>
+      </c>
+      <c r="Q11" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1410</v>
+      </c>
+      <c r="R11" s="22" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1406</v>
+      </c>
+      <c r="S11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1414</v>
+      </c>
+      <c r="T11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1408</v>
+      </c>
+      <c r="U11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1404</v>
+      </c>
+      <c r="V11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1410</v>
+      </c>
+      <c r="W11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1407</v>
+      </c>
+      <c r="X11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="Z11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1410</v>
+      </c>
+      <c r="AA11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1406</v>
+      </c>
+      <c r="AB11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1404</v>
+      </c>
+      <c r="AC11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1402</v>
+      </c>
+      <c r="AD11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1412</v>
+      </c>
+      <c r="AE11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1404</v>
+      </c>
+      <c r="AF11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1414</v>
+      </c>
+      <c r="AG11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="AH11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>1415</v>
       </c>
-      <c r="G11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1405</v>
-      </c>
-      <c r="H11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1410</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="17" t="str">
+      <c r="AI11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1403</v>
+      </c>
+      <c r="AK11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1411</v>
+      </c>
+      <c r="AL11" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>1415</v>
       </c>
-      <c r="K11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1402</v>
-      </c>
-      <c r="L11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1413</v>
-      </c>
-      <c r="M11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1401</v>
-      </c>
-      <c r="N11" s="22" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1410</v>
-      </c>
-      <c r="O11" s="20" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1402</v>
-      </c>
-      <c r="P11" s="20" t="str">
+      <c r="AM11" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="AN11" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>1404</v>
-      </c>
-      <c r="Q11" s="20" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1413</v>
-      </c>
-      <c r="R11" s="22" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1407</v>
-      </c>
-      <c r="S11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1402</v>
-      </c>
-      <c r="T11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1413</v>
-      </c>
-      <c r="U11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1415</v>
-      </c>
-      <c r="V11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1401</v>
-      </c>
-      <c r="W11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1413</v>
-      </c>
-      <c r="X11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1411</v>
-      </c>
-      <c r="Z11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1408</v>
-      </c>
-      <c r="AA11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1405</v>
-      </c>
-      <c r="AB11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1414</v>
-      </c>
-      <c r="AC11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1400</v>
-      </c>
-      <c r="AD11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1410</v>
-      </c>
-      <c r="AE11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1403</v>
-      </c>
-      <c r="AF11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1412</v>
-      </c>
-      <c r="AG11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1401</v>
-      </c>
-      <c r="AH11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1410</v>
-      </c>
-      <c r="AI11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1400</v>
-      </c>
-      <c r="AK11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1400</v>
-      </c>
-      <c r="AL11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1400</v>
-      </c>
-      <c r="AM11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1415</v>
-      </c>
-      <c r="AN11" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1405</v>
       </c>
       <c r="AO11" s="19" t="s">
         <v>22</v>
@@ -3060,25 +3067,25 @@
       <c r="BR11" s="4"/>
       <c r="BS11" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="BT11" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="BU11" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="12" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1414', '1406', '1406', '0001', '1401', '1402', '1402', '1411', '1408', '1402', '1402', '1408', '1410', '1405', '1405', '1415', '1409', '1407', '0001', '1407', '1408', '1411', '1406', '1402', '1401', '1413', '1401', '1409', '1401', '0002', '1400', '1408', '1405', '1415', '1410', '0002', '1405', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'1403', '1407', '1414', '0001', '1403', '1409', '1401', '1414', '1408', '1407', '1414', '1407', '1400', '1410', '1415', '1411', '1410', '1414', '0001', '1411', '1406', '1401', '1404', '1404', '1405', '1401', '1403', '1404', '1406', '0002', '1409', '1414', '1409', '1407', '1410', '0002', '1415', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1414', '1406', '1406', '0001', '1401', '1402', '1402', '1411', '1408', '1402', '1402', '1408', '1410', '1405', '1405', '1415', '1409', '1407', '0001', '1407', '1408', '1411', '1406', '1402', '1401', '1413', '1401', '1409', '1401', '0002', '1400', '1408', '1405', '1415', '1410', '0002', '1405', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['1403', '1407', '1414', '0001', '1403', '1409', '1401', '1414', '1408', '1407', '1414', '1407', '1400', '1410', '1415', '1411', '1410', '1414', '0001', '1411', '1406', '1401', '1404', '1404', '1405', '1401', '1403', '1404', '1406', '0002', '1409', '1414', '1409', '1407', '1410', '0002', '1415', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>4</v>
@@ -3088,147 +3095,147 @@
       </c>
       <c r="F12" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
+        <v>1403</v>
+      </c>
+      <c r="G12" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1407</v>
+      </c>
+      <c r="H12" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>1414</v>
       </c>
-      <c r="G12" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="I12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1403</v>
+      </c>
+      <c r="K12" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1409</v>
+      </c>
+      <c r="L12" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1401</v>
+      </c>
+      <c r="M12" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1414</v>
+      </c>
+      <c r="N12" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1408</v>
+      </c>
+      <c r="O12" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1407</v>
+      </c>
+      <c r="P12" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1414</v>
+      </c>
+      <c r="Q12" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1407</v>
+      </c>
+      <c r="R12" s="17" t="str">
+        <f t="shared" ref="G12:AP19" ca="1" si="6">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
+        <v>1400</v>
+      </c>
+      <c r="S12" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1410</v>
+      </c>
+      <c r="T12" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1415</v>
+      </c>
+      <c r="U12" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1411</v>
+      </c>
+      <c r="V12" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1410</v>
+      </c>
+      <c r="W12" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1414</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y12" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1411</v>
+      </c>
+      <c r="Z12" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>1406</v>
       </c>
-      <c r="H12" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="AA12" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1401</v>
+      </c>
+      <c r="AB12" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1404</v>
+      </c>
+      <c r="AC12" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1404</v>
+      </c>
+      <c r="AD12" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1405</v>
+      </c>
+      <c r="AE12" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1401</v>
+      </c>
+      <c r="AF12" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1403</v>
+      </c>
+      <c r="AG12" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1404</v>
+      </c>
+      <c r="AH12" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>1406</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1401</v>
-      </c>
-      <c r="K12" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1402</v>
-      </c>
-      <c r="L12" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1402</v>
-      </c>
-      <c r="M12" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1411</v>
-      </c>
-      <c r="N12" s="20" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1408</v>
-      </c>
-      <c r="O12" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1402</v>
-      </c>
-      <c r="P12" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1402</v>
-      </c>
-      <c r="Q12" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1408</v>
-      </c>
-      <c r="R12" s="17" t="str">
-        <f t="shared" ref="G12:AQ19" ca="1" si="6">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
+      <c r="AI12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ12" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1409</v>
+      </c>
+      <c r="AK12" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1414</v>
+      </c>
+      <c r="AL12" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1409</v>
+      </c>
+      <c r="AM12" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1407</v>
+      </c>
+      <c r="AN12" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>1410</v>
       </c>
-      <c r="S12" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1405</v>
-      </c>
-      <c r="T12" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1405</v>
-      </c>
-      <c r="U12" s="17" t="str">
+      <c r="AO12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP12" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1415</v>
-      </c>
-      <c r="V12" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1409</v>
-      </c>
-      <c r="W12" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1407</v>
-      </c>
-      <c r="X12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y12" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1407</v>
-      </c>
-      <c r="Z12" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1408</v>
-      </c>
-      <c r="AA12" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1411</v>
-      </c>
-      <c r="AB12" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1406</v>
-      </c>
-      <c r="AC12" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1402</v>
-      </c>
-      <c r="AD12" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1401</v>
-      </c>
-      <c r="AE12" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1413</v>
-      </c>
-      <c r="AF12" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1401</v>
-      </c>
-      <c r="AG12" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1409</v>
-      </c>
-      <c r="AH12" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1401</v>
-      </c>
-      <c r="AI12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ12" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1400</v>
-      </c>
-      <c r="AK12" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1408</v>
-      </c>
-      <c r="AL12" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1405</v>
-      </c>
-      <c r="AM12" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1415</v>
-      </c>
-      <c r="AN12" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1410</v>
-      </c>
-      <c r="AO12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP12" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1405</v>
       </c>
       <c r="AQ12" s="19" t="s">
         <v>22</v>
@@ -3314,25 +3321,25 @@
       <c r="BR12" s="4"/>
       <c r="BS12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="BT12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="BU12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1000</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="13" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '1402', '0001', '0001', '0001', '0001', '0001', '1410', '0001', '0001', '0001', '0001', '0001', '0001', '1404', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0307', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '1404', '0001', '0001', '0001', '0001', '0001', '1403', '0001', '0001', '0001', '0001', '0001', '0001', '1401', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0307', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '1402', '0001', '0001', '0001', '0001', '0001', '1410', '0001', '0001', '0001', '0001', '0001', '0001', '1404', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0307', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '1404', '0001', '0001', '0001', '0001', '0001', '1403', '0001', '0001', '0001', '0001', '0001', '0001', '1401', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0307', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>4</v>
@@ -3411,7 +3418,7 @@
       </c>
       <c r="AC13" s="22" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="AD13" s="19" t="s">
         <v>21</v>
@@ -3430,7 +3437,7 @@
       </c>
       <c r="AI13" s="22" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1410</v>
+        <v>1403</v>
       </c>
       <c r="AJ13" s="19" t="s">
         <v>21</v>
@@ -3452,7 +3459,7 @@
       </c>
       <c r="AP13" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="AQ13" s="19" t="s">
         <v>22</v>
@@ -3538,25 +3545,25 @@
       <c r="BR13" s="4"/>
       <c r="BS13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="BT13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="BU13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1000</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="14" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1412', '1415', '1403', '1415', '1404', '1406', '1400', '1405', '0001', '1407', '1412', '1415', '1410', '1400', '1415', '1409', '1400', '1401', '0001', '1405', '1410', '1406', '1415', '0002', '1407', '1400', '1400', '1406', '1407', '0002', '1404', '1415', '1402', '1410', '1403', '1411', '1401', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'1403', '1411', '1407', '1403', '1411', '1408', '1407', '1407', '0001', '1414', '1406', '1412', '1405', '1411', '1401', '1414', '1410', '1401', '0001', '1415', '1409', '1410', '1400', '0002', '1408', '1405', '1414', '1407', '1410', '0002', '1407', '1414', '1415', '1409', '1407', '1403', '1415', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1412', '1415', '1403', '1415', '1404', '1406', '1400', '1405', '0001', '1407', '1412', '1415', '1410', '1400', '1415', '1409', '1400', '1401', '0001', '1405', '1410', '1406', '1415', '0002', '1407', '1400', '1400', '1406', '1407', '0002', '1404', '1415', '1402', '1410', '1403', '1411', '1401', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['1403', '1411', '1407', '1403', '1411', '1408', '1407', '1407', '0001', '1414', '1406', '1412', '1405', '1411', '1401', '1414', '1410', '1401', '0001', '1415', '1409', '1410', '1400', '0002', '1408', '1405', '1414', '1407', '1410', '0002', '1407', '1414', '1415', '1409', '1407', '1403', '1415', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>4</v>
@@ -3566,147 +3573,147 @@
       </c>
       <c r="F14" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
+        <v>1403</v>
+      </c>
+      <c r="G14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1411</v>
+      </c>
+      <c r="H14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1407</v>
+      </c>
+      <c r="I14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1403</v>
+      </c>
+      <c r="J14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1411</v>
+      </c>
+      <c r="K14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1408</v>
+      </c>
+      <c r="L14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1407</v>
+      </c>
+      <c r="M14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1407</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1414</v>
+      </c>
+      <c r="P14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1406</v>
+      </c>
+      <c r="Q14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>1412</v>
       </c>
-      <c r="G14" s="17" t="str">
+      <c r="R14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1405</v>
+      </c>
+      <c r="S14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1411</v>
+      </c>
+      <c r="T14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1401</v>
+      </c>
+      <c r="U14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1414</v>
+      </c>
+      <c r="V14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1410</v>
+      </c>
+      <c r="W14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1401</v>
+      </c>
+      <c r="X14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y14" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1415</v>
       </c>
-      <c r="H14" s="17" t="str">
+      <c r="Z14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1409</v>
+      </c>
+      <c r="AA14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1410</v>
+      </c>
+      <c r="AB14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1400</v>
+      </c>
+      <c r="AC14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1408</v>
+      </c>
+      <c r="AE14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1405</v>
+      </c>
+      <c r="AF14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1414</v>
+      </c>
+      <c r="AG14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1407</v>
+      </c>
+      <c r="AH14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1410</v>
+      </c>
+      <c r="AI14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1407</v>
+      </c>
+      <c r="AK14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1414</v>
+      </c>
+      <c r="AL14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1415</v>
+      </c>
+      <c r="AM14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1409</v>
+      </c>
+      <c r="AN14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1407</v>
+      </c>
+      <c r="AO14" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1403</v>
       </c>
-      <c r="I14" s="17" t="str">
+      <c r="AP14" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1415</v>
-      </c>
-      <c r="J14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1404</v>
-      </c>
-      <c r="K14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1406</v>
-      </c>
-      <c r="L14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1400</v>
-      </c>
-      <c r="M14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1405</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1407</v>
-      </c>
-      <c r="P14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1412</v>
-      </c>
-      <c r="Q14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1415</v>
-      </c>
-      <c r="R14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1410</v>
-      </c>
-      <c r="S14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1400</v>
-      </c>
-      <c r="T14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1415</v>
-      </c>
-      <c r="U14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1409</v>
-      </c>
-      <c r="V14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1400</v>
-      </c>
-      <c r="W14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1401</v>
-      </c>
-      <c r="X14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1405</v>
-      </c>
-      <c r="Z14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1410</v>
-      </c>
-      <c r="AA14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1406</v>
-      </c>
-      <c r="AB14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1415</v>
-      </c>
-      <c r="AC14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1407</v>
-      </c>
-      <c r="AE14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1400</v>
-      </c>
-      <c r="AF14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1400</v>
-      </c>
-      <c r="AG14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1406</v>
-      </c>
-      <c r="AH14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1407</v>
-      </c>
-      <c r="AI14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1404</v>
-      </c>
-      <c r="AK14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1415</v>
-      </c>
-      <c r="AL14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1402</v>
-      </c>
-      <c r="AM14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1410</v>
-      </c>
-      <c r="AN14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1403</v>
-      </c>
-      <c r="AO14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1411</v>
-      </c>
-      <c r="AP14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1401</v>
       </c>
       <c r="AQ14" s="19" t="s">
         <v>22</v>
@@ -3792,25 +3799,25 @@
       <c r="BR14" s="4"/>
       <c r="BS14" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="BT14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="BU14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="15" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1411', '1405', '1411', '1406', '1408', '1415', '1412', '1414', '0001', '1403', '1403', '1400', '1403', '1409', '1401', '1410', '1406', '1413', '0001', '1406', '1414', '1407', '1404', '0002', '1403', '1415', '1408', '1409', '1415', '0002', '1408', '1403', '1404', '1413', '1402', '1401', '1407', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'1407', '1413', '1405', '1403', '1404', '1405', '1415', '1408', '0001', '1407', '1406', '1401', '1407', '1404', '1411', '1405', '1405', '1406', '0001', '1408', '1407', '1413', '1402', '0002', '1405', '1403', '1405', '1405', '1405', '0002', '1414', '1413', '1415', '1414', '1412', '1405', '1407', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1411', '1405', '1411', '1406', '1408', '1415', '1412', '1414', '0001', '1403', '1403', '1400', '1403', '1409', '1401', '1410', '1406', '1413', '0001', '1406', '1414', '1407', '1404', '0002', '1403', '1415', '1408', '1409', '1415', '0002', '1408', '1403', '1404', '1413', '1402', '1401', '1407', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['1407', '1413', '1405', '1403', '1404', '1405', '1415', '1408', '0001', '1407', '1406', '1401', '1407', '1404', '1411', '1405', '1405', '1406', '0001', '1408', '1407', '1413', '1402', '0002', '1405', '1403', '1405', '1405', '1405', '0002', '1414', '1413', '1415', '1414', '1412', '1405', '1407', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>4</v>
@@ -3820,143 +3827,143 @@
       </c>
       <c r="F15" s="17" t="str">
         <f ca="1">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
+        <v>1407</v>
+      </c>
+      <c r="G15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1413</v>
+      </c>
+      <c r="H15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1405</v>
+      </c>
+      <c r="I15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1403</v>
+      </c>
+      <c r="J15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1404</v>
+      </c>
+      <c r="K15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1405</v>
+      </c>
+      <c r="L15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1415</v>
+      </c>
+      <c r="M15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1408</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1407</v>
+      </c>
+      <c r="P15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1406</v>
+      </c>
+      <c r="Q15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1401</v>
+      </c>
+      <c r="R15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1407</v>
+      </c>
+      <c r="S15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1404</v>
+      </c>
+      <c r="T15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>1411</v>
       </c>
-      <c r="G15" s="17" t="str">
+      <c r="U15" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1405</v>
       </c>
-      <c r="H15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1411</v>
-      </c>
-      <c r="I15" s="17" t="str">
+      <c r="V15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1405</v>
+      </c>
+      <c r="W15" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1406</v>
       </c>
-      <c r="J15" s="17" t="str">
+      <c r="X15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y15" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1408</v>
       </c>
-      <c r="K15" s="17" t="str">
+      <c r="Z15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1407</v>
+      </c>
+      <c r="AA15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1413</v>
+      </c>
+      <c r="AB15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1402</v>
+      </c>
+      <c r="AC15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1405</v>
+      </c>
+      <c r="AE15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1403</v>
+      </c>
+      <c r="AF15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1405</v>
+      </c>
+      <c r="AG15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1405</v>
+      </c>
+      <c r="AH15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1405</v>
+      </c>
+      <c r="AI15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1414</v>
+      </c>
+      <c r="AK15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1413</v>
+      </c>
+      <c r="AL15" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1415</v>
       </c>
-      <c r="L15" s="17" t="str">
+      <c r="AM15" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1414</v>
+      </c>
+      <c r="AN15" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1412</v>
       </c>
-      <c r="M15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1414</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1403</v>
-      </c>
-      <c r="P15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1403</v>
-      </c>
-      <c r="Q15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1400</v>
-      </c>
-      <c r="R15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1403</v>
-      </c>
-      <c r="S15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1409</v>
-      </c>
-      <c r="T15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1401</v>
-      </c>
-      <c r="U15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1410</v>
-      </c>
-      <c r="V15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1406</v>
-      </c>
-      <c r="W15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1413</v>
-      </c>
-      <c r="X15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1406</v>
-      </c>
-      <c r="Z15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1414</v>
-      </c>
-      <c r="AA15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1407</v>
-      </c>
-      <c r="AB15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1404</v>
-      </c>
-      <c r="AC15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1403</v>
-      </c>
-      <c r="AE15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1415</v>
-      </c>
-      <c r="AF15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1408</v>
-      </c>
-      <c r="AG15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1409</v>
-      </c>
-      <c r="AH15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1415</v>
-      </c>
-      <c r="AI15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1408</v>
-      </c>
-      <c r="AK15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1403</v>
-      </c>
-      <c r="AL15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1404</v>
-      </c>
-      <c r="AM15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1413</v>
-      </c>
-      <c r="AN15" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1402</v>
-      </c>
       <c r="AO15" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1401</v>
+        <v>1405</v>
       </c>
       <c r="AP15" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4046,25 +4053,25 @@
       <c r="BR15" s="4"/>
       <c r="BS15" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="BT15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="BU15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1000</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="16" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1403', '1402', '1404', '1402', '1413', '1409', '1400', '1412', '0001', '1400', '1409', '1402', '1413', '1412', '1404', '1414', '1404', '1413', '0001', '1410', '1414', '1415', '1410', '0002', '1406', '1415', '1404', '1403', '1410', '0002', '1401', '1410', '1411', '1414', '1411', '1412', '1407', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'1412', '1412', '1401', '1414', '1400', '1401', '1414', '1412', '0001', '1404', '1402', '1405', '1407', '1413', '1401', '1407', '1408', '1412', '0001', '1408', '1414', '1402', '1405', '0002', '1413', '1408', '1402', '1415', '1412', '0002', '1412', '1414', '1414', '1413', '1404', '1413', '1412', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1403', '1402', '1404', '1402', '1413', '1409', '1400', '1412', '0001', '1400', '1409', '1402', '1413', '1412', '1404', '1414', '1404', '1413', '0001', '1410', '1414', '1415', '1410', '0002', '1406', '1415', '1404', '1403', '1410', '0002', '1401', '1410', '1411', '1414', '1411', '1412', '1407', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['1412', '1412', '1401', '1414', '1400', '1401', '1414', '1412', '0001', '1404', '1402', '1405', '1407', '1413', '1401', '1407', '1408', '1412', '0001', '1408', '1414', '1402', '1405', '0002', '1413', '1408', '1402', '1415', '1412', '0002', '1412', '1414', '1414', '1413', '1404', '1413', '1412', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>4</v>
@@ -4074,31 +4081,31 @@
       </c>
       <c r="F16" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1403</v>
+        <v>1412</v>
       </c>
       <c r="G16" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1402</v>
+        <v>1412</v>
       </c>
       <c r="H16" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I16" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1402</v>
+        <v>1414</v>
       </c>
       <c r="J16" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1413</v>
+        <v>1400</v>
       </c>
       <c r="K16" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="L16" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1400</v>
+        <v>1414</v>
       </c>
       <c r="M16" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4109,112 +4116,112 @@
       </c>
       <c r="O16" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="P16" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1409</v>
+        <v>1402</v>
       </c>
       <c r="Q16" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="R16" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="S16" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="T16" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="U16" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
+        <v>1407</v>
+      </c>
+      <c r="V16" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1408</v>
+      </c>
+      <c r="W16" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1412</v>
+      </c>
+      <c r="X16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y16" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1408</v>
+      </c>
+      <c r="Z16" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>1414</v>
       </c>
-      <c r="V16" s="17" t="str">
+      <c r="AA16" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1402</v>
+      </c>
+      <c r="AB16" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1405</v>
+      </c>
+      <c r="AC16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD16" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1413</v>
+      </c>
+      <c r="AE16" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1408</v>
+      </c>
+      <c r="AF16" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1402</v>
+      </c>
+      <c r="AG16" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1415</v>
+      </c>
+      <c r="AH16" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1412</v>
+      </c>
+      <c r="AI16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ16" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1412</v>
+      </c>
+      <c r="AK16" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1414</v>
+      </c>
+      <c r="AL16" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1414</v>
+      </c>
+      <c r="AM16" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1413</v>
+      </c>
+      <c r="AN16" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1404</v>
       </c>
-      <c r="W16" s="17" t="str">
+      <c r="AO16" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1413</v>
       </c>
-      <c r="X16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y16" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1410</v>
-      </c>
-      <c r="Z16" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1414</v>
-      </c>
-      <c r="AA16" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1415</v>
-      </c>
-      <c r="AB16" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1410</v>
-      </c>
-      <c r="AC16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD16" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1406</v>
-      </c>
-      <c r="AE16" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1415</v>
-      </c>
-      <c r="AF16" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1404</v>
-      </c>
-      <c r="AG16" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1403</v>
-      </c>
-      <c r="AH16" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1410</v>
-      </c>
-      <c r="AI16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ16" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1401</v>
-      </c>
-      <c r="AK16" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1410</v>
-      </c>
-      <c r="AL16" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1411</v>
-      </c>
-      <c r="AM16" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1414</v>
-      </c>
-      <c r="AN16" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1411</v>
-      </c>
-      <c r="AO16" s="17" t="str">
+      <c r="AP16" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1412</v>
-      </c>
-      <c r="AP16" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1407</v>
       </c>
       <c r="AQ16" s="19" t="s">
         <v>22</v>
@@ -4300,25 +4307,25 @@
       <c r="BR16" s="4"/>
       <c r="BS16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="BT16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="BU16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="17" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1400', '1411', '1401', '1411', '1406', '1412', '1412', '1412', '0001', '1415', '1404', '1410', '1415', '1415', '1411', '1406', '1415', '1400', '0001', '1410', '1400', '1413', '1405', '0002', '1414', '1415', '1407', '1401', '1407', '0002', '1408', '1415', '1404', '1410', '1408', '1410', '1411', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'1413', '1415', '1411', '1415', '1400', '1415', '1415', '1414', '0001', '1406', '1401', '1401', '1405', '1401', '1409', '1412', '1401', '1403', '0001', '1406', '1414', '1400', '1406', '0002', '1404', '1403', '1407', '1412', '1406', '0002', '1404', '1409', '1412', '1406', '1405', '1413', '1401', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1400', '1411', '1401', '1411', '1406', '1412', '1412', '1412', '0001', '1415', '1404', '1410', '1415', '1415', '1411', '1406', '1415', '1400', '0001', '1410', '1400', '1413', '1405', '0002', '1414', '1415', '1407', '1401', '1407', '0002', '1408', '1415', '1404', '1410', '1408', '1410', '1411', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['1413', '1415', '1411', '1415', '1400', '1415', '1415', '1414', '0001', '1406', '1401', '1401', '1405', '1401', '1409', '1412', '1401', '1403', '0001', '1406', '1414', '1400', '1406', '0002', '1404', '1403', '1407', '1412', '1406', '0002', '1404', '1409', '1412', '1406', '1405', '1413', '1401', '0002', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>4</v>
@@ -4328,147 +4335,147 @@
       </c>
       <c r="F17" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
+        <v>1413</v>
+      </c>
+      <c r="G17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1415</v>
+      </c>
+      <c r="H17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1411</v>
+      </c>
+      <c r="I17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1415</v>
+      </c>
+      <c r="J17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>1400</v>
       </c>
-      <c r="G17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1411</v>
-      </c>
-      <c r="H17" s="17" t="str">
+      <c r="K17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1415</v>
+      </c>
+      <c r="L17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1415</v>
+      </c>
+      <c r="M17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1414</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1406</v>
+      </c>
+      <c r="P17" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1401</v>
       </c>
-      <c r="I17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1411</v>
-      </c>
-      <c r="J17" s="17" t="str">
+      <c r="Q17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1401</v>
+      </c>
+      <c r="R17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1405</v>
+      </c>
+      <c r="S17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1401</v>
+      </c>
+      <c r="T17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1409</v>
+      </c>
+      <c r="U17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1412</v>
+      </c>
+      <c r="V17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1401</v>
+      </c>
+      <c r="W17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1403</v>
+      </c>
+      <c r="X17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y17" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1406</v>
       </c>
-      <c r="K17" s="17" t="str">
+      <c r="Z17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1414</v>
+      </c>
+      <c r="AA17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1400</v>
+      </c>
+      <c r="AB17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1406</v>
+      </c>
+      <c r="AC17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1404</v>
+      </c>
+      <c r="AE17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1403</v>
+      </c>
+      <c r="AF17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1407</v>
+      </c>
+      <c r="AG17" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1412</v>
       </c>
-      <c r="L17" s="17" t="str">
+      <c r="AH17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1406</v>
+      </c>
+      <c r="AI17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1404</v>
+      </c>
+      <c r="AK17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1409</v>
+      </c>
+      <c r="AL17" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1412</v>
       </c>
-      <c r="M17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1412</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="O17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1415</v>
-      </c>
-      <c r="P17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1404</v>
-      </c>
-      <c r="Q17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1410</v>
-      </c>
-      <c r="R17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1415</v>
-      </c>
-      <c r="S17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1415</v>
-      </c>
-      <c r="T17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1411</v>
-      </c>
-      <c r="U17" s="17" t="str">
+      <c r="AM17" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1406</v>
       </c>
-      <c r="V17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1415</v>
-      </c>
-      <c r="W17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1400</v>
-      </c>
-      <c r="X17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1410</v>
-      </c>
-      <c r="Z17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1400</v>
-      </c>
-      <c r="AA17" s="17" t="str">
+      <c r="AN17" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1405</v>
+      </c>
+      <c r="AO17" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1413</v>
       </c>
-      <c r="AB17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1405</v>
-      </c>
-      <c r="AC17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1414</v>
-      </c>
-      <c r="AE17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1415</v>
-      </c>
-      <c r="AF17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1407</v>
-      </c>
-      <c r="AG17" s="17" t="str">
+      <c r="AP17" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1401</v>
-      </c>
-      <c r="AH17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1407</v>
-      </c>
-      <c r="AI17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1408</v>
-      </c>
-      <c r="AK17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1415</v>
-      </c>
-      <c r="AL17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1404</v>
-      </c>
-      <c r="AM17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1410</v>
-      </c>
-      <c r="AN17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1408</v>
-      </c>
-      <c r="AO17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1410</v>
-      </c>
-      <c r="AP17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1411</v>
       </c>
       <c r="AQ17" s="19" t="s">
         <v>22</v>
@@ -4570,143 +4577,143 @@
       </c>
       <c r="F18" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
+        <v>1406</v>
+      </c>
+      <c r="G18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1403</v>
+      </c>
+      <c r="H18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1403</v>
+      </c>
+      <c r="I18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>1400</v>
       </c>
-      <c r="G18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1408</v>
-      </c>
-      <c r="H18" s="17" t="str">
+      <c r="J18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1410</v>
+      </c>
+      <c r="K18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1402</v>
+      </c>
+      <c r="L18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1400</v>
+      </c>
+      <c r="M18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1403</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1406</v>
+      </c>
+      <c r="P18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1412</v>
+      </c>
+      <c r="Q18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1400</v>
+      </c>
+      <c r="R18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1404</v>
+      </c>
+      <c r="S18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1400</v>
+      </c>
+      <c r="T18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1406</v>
+      </c>
+      <c r="U18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1409</v>
+      </c>
+      <c r="V18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1407</v>
+      </c>
+      <c r="W18" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1405</v>
       </c>
-      <c r="I18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1411</v>
-      </c>
-      <c r="J18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1411</v>
-      </c>
-      <c r="K18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1410</v>
-      </c>
-      <c r="L18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1411</v>
-      </c>
-      <c r="M18" s="17" t="str">
+      <c r="X18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1400</v>
+      </c>
+      <c r="Z18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1412</v>
+      </c>
+      <c r="AA18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1407</v>
+      </c>
+      <c r="AB18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1403</v>
+      </c>
+      <c r="AC18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1409</v>
+      </c>
+      <c r="AE18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1404</v>
+      </c>
+      <c r="AF18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1402</v>
+      </c>
+      <c r="AG18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1406</v>
+      </c>
+      <c r="AH18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1413</v>
+      </c>
+      <c r="AI18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1414</v>
+      </c>
+      <c r="AK18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1412</v>
+      </c>
+      <c r="AL18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1414</v>
+      </c>
+      <c r="AM18" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1400</v>
+      </c>
+      <c r="AN18" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1415</v>
       </c>
-      <c r="N18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1400</v>
-      </c>
-      <c r="P18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1400</v>
-      </c>
-      <c r="Q18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1410</v>
-      </c>
-      <c r="R18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1410</v>
-      </c>
-      <c r="S18" s="17" t="str">
+      <c r="AO18" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1405</v>
-      </c>
-      <c r="T18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1409</v>
-      </c>
-      <c r="U18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1400</v>
-      </c>
-      <c r="V18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1404</v>
-      </c>
-      <c r="W18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1404</v>
-      </c>
-      <c r="X18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1409</v>
-      </c>
-      <c r="Z18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1402</v>
-      </c>
-      <c r="AA18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1411</v>
-      </c>
-      <c r="AB18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1408</v>
-      </c>
-      <c r="AC18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1414</v>
-      </c>
-      <c r="AE18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1410</v>
-      </c>
-      <c r="AF18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1413</v>
-      </c>
-      <c r="AG18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1406</v>
-      </c>
-      <c r="AH18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1408</v>
-      </c>
-      <c r="AI18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1409</v>
-      </c>
-      <c r="AK18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1411</v>
-      </c>
-      <c r="AL18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1411</v>
-      </c>
-      <c r="AM18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1400</v>
-      </c>
-      <c r="AN18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1410</v>
-      </c>
-      <c r="AO18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1412</v>
       </c>
       <c r="AP18" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4798,11 +4805,11 @@
     <row r="19" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1402', '1415', '1407', '1408', '1400', '1402', '1412', '1415', '0001', '1400', '1413', '1410', '1403', '1400', '1404', '1412', '1407', '1415', '0001', '1412', '1404', '1400', '1401', '0002', '1410', '1412', '1413', '1407', '1408', '0002', '1410', '1406', '1409', '1414', '1407', '1407', '1405', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0308', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'1413', '1406', '1401', '1404', '1405', '1404', '1407', '1400', '0001', '1406', '1413', '1415', '1414', '1401', '1414', '1415', '1409', '1400', '0001', '1400', '1415', '1410', '1414', '0002', '1414', '1402', '1403', '1410', '1401', '0002', '1415', '1410', '1413', '1409', '1410', '1409', '1410', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0308', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1402', '1415', '1407', '1408', '1400', '1402', '1412', '1415', '0001', '1400', '1413', '1410', '1403', '1400', '1404', '1412', '1407', '1415', '0001', '1412', '1404', '1400', '1401', '0002', '1410', '1412', '1413', '1407', '1408', '0002', '1410', '1406', '1409', '1414', '1407', '1407', '1405', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0308', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['1413', '1406', '1401', '1404', '1405', '1404', '1407', '1400', '0001', '1406', '1413', '1415', '1414', '1401', '1414', '1415', '1409', '1400', '0001', '1400', '1415', '1410', '1414', '0002', '1414', '1402', '1403', '1410', '1401', '0002', '1415', '1410', '1413', '1409', '1410', '1409', '1410', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0308', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>4</v>
@@ -4812,147 +4819,147 @@
       </c>
       <c r="F19" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1402</v>
+        <v>1413</v>
       </c>
       <c r="G19" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
+        <v>1406</v>
+      </c>
+      <c r="H19" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1401</v>
+      </c>
+      <c r="I19" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1404</v>
+      </c>
+      <c r="J19" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1405</v>
+      </c>
+      <c r="K19" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1404</v>
+      </c>
+      <c r="L19" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1407</v>
+      </c>
+      <c r="M19" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1400</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1406</v>
+      </c>
+      <c r="P19" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1413</v>
+      </c>
+      <c r="Q19" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>1415</v>
       </c>
-      <c r="H19" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1407</v>
-      </c>
-      <c r="I19" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1408</v>
-      </c>
-      <c r="J19" s="17" t="str">
+      <c r="R19" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1414</v>
+      </c>
+      <c r="S19" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1401</v>
+      </c>
+      <c r="T19" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1414</v>
+      </c>
+      <c r="U19" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1415</v>
+      </c>
+      <c r="V19" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1409</v>
+      </c>
+      <c r="W19" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1400</v>
       </c>
-      <c r="K19" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1402</v>
-      </c>
-      <c r="L19" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1412</v>
-      </c>
-      <c r="M19" s="17" t="str">
+      <c r="X19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y19" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1400</v>
+      </c>
+      <c r="Z19" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1415</v>
       </c>
-      <c r="N19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="O19" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1400</v>
-      </c>
-      <c r="P19" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1413</v>
-      </c>
-      <c r="Q19" s="17" t="str">
+      <c r="AA19" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1410</v>
       </c>
-      <c r="R19" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1403</v>
-      </c>
-      <c r="S19" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1400</v>
-      </c>
-      <c r="T19" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1404</v>
-      </c>
-      <c r="U19" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1412</v>
-      </c>
-      <c r="V19" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1407</v>
-      </c>
-      <c r="W19" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1415</v>
-      </c>
-      <c r="X19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y19" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1412</v>
-      </c>
-      <c r="Z19" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1404</v>
-      </c>
-      <c r="AA19" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1400</v>
-      </c>
       <c r="AB19" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1401</v>
+        <v>1414</v>
       </c>
       <c r="AC19" s="19" t="s">
         <v>22</v>
       </c>
       <c r="AD19" s="17" t="str">
-        <f t="shared" ref="AC19:AQ19" ca="1" si="7">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
-        <v>1410</v>
+        <f t="shared" ref="AD19:AP19" ca="1" si="7">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
+        <v>1414</v>
       </c>
       <c r="AE19" s="17" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1412</v>
+        <v>1402</v>
       </c>
       <c r="AF19" s="17" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1413</v>
+        <v>1403</v>
       </c>
       <c r="AG19" s="17" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="AH19" s="17" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="AI19" s="19" t="s">
         <v>22</v>
       </c>
       <c r="AJ19" s="17" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1410</v>
+        <v>1415</v>
       </c>
       <c r="AK19" s="17" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="AL19" s="17" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="AM19" s="17" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="AN19" s="17" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="AO19" s="17" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="AP19" s="17" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1405</v>
+        <v>1410</v>
       </c>
       <c r="AQ19" s="19" t="s">
         <v>22</v>
@@ -5040,11 +5047,11 @@
     <row r="20" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1412', '1400', '1413', '0007', '0001', '0001', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0012', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'1401', '1401', '1400', '0007', '0001', '0001', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0012', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1412', '1400', '1413', '0007', '0001', '0001', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0012', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['1401', '1401', '1400', '0007', '0001', '0001', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0012', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>4</v>
@@ -5054,15 +5061,15 @@
       </c>
       <c r="F20" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="G20" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="H20" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1413</v>
+        <v>1400</v>
       </c>
       <c r="I20" s="21" t="s">
         <v>29</v>
@@ -5252,11 +5259,11 @@
     <row r="21" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1408', '1410', '1409', '0002', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '1007', '1003', '0002', '1402', '1407', '1415', '1410', '1407', '1404', '1402', '1413', '1402', '1408', '1410', '1404', '1408', '1415', '1408', '1400', '1409', '1415', '1415', '1406', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'1413', '1410', '1405', '0002', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '1007', '1003', '0002', '1413', '1403', '1403', '1402', '1400', '1400', '1411', '1400', '1409', '1413', '1407', '1406', '1412', '1408', '1415', '1413', '1400', '1413', '1401', '1401', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1408', '1410', '1409', '0002', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '1007', '1003', '0002', '1402', '1407', '1415', '1410', '1407', '1404', '1402', '1413', '1402', '1408', '1410', '1404', '1408', '1415', '1408', '1400', '1409', '1415', '1415', '1406', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['1413', '1410', '1405', '0002', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '1007', '1003', '0002', '1413', '1403', '1403', '1402', '1400', '1400', '1411', '1400', '1409', '1413', '1407', '1406', '1412', '1408', '1415', '1413', '1400', '1413', '1401', '1401', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>4</v>
@@ -5266,7 +5273,7 @@
       </c>
       <c r="F21" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1408</v>
+        <v>1413</v>
       </c>
       <c r="G21" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5274,7 +5281,7 @@
       </c>
       <c r="H21" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>22</v>
@@ -5320,83 +5327,83 @@
       </c>
       <c r="W21" s="17" t="str">
         <f t="shared" ref="W21:AD22" ca="1" si="8">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
-        <v>1402</v>
+        <v>1413</v>
       </c>
       <c r="X21" s="17" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="Y21" s="17" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1415</v>
+        <v>1403</v>
       </c>
       <c r="Z21" s="17" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1410</v>
+        <v>1402</v>
       </c>
       <c r="AA21" s="17" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="AB21" s="17" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="AC21" s="17" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1402</v>
+        <v>1411</v>
       </c>
       <c r="AD21" s="17" t="str">
         <f t="shared" ca="1" si="8"/>
+        <v>1400</v>
+      </c>
+      <c r="AE21" s="17" t="str">
+        <f t="shared" ref="AE21:AP38" ca="1" si="9">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
+        <v>1409</v>
+      </c>
+      <c r="AF21" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>1413</v>
       </c>
-      <c r="AE21" s="17" t="str">
-        <f t="shared" ref="AE21:AR38" ca="1" si="9">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
-        <v>1402</v>
-      </c>
-      <c r="AF21" s="17" t="str">
+      <c r="AG21" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1407</v>
+      </c>
+      <c r="AH21" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1406</v>
+      </c>
+      <c r="AI21" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1412</v>
+      </c>
+      <c r="AJ21" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>1408</v>
       </c>
-      <c r="AG21" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1410</v>
-      </c>
-      <c r="AH21" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1404</v>
-      </c>
-      <c r="AI21" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1408</v>
-      </c>
-      <c r="AJ21" s="17" t="str">
+      <c r="AK21" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>1415</v>
       </c>
-      <c r="AK21" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1408</v>
-      </c>
       <c r="AL21" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
+        <v>1413</v>
+      </c>
+      <c r="AM21" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>1400</v>
       </c>
-      <c r="AM21" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1409</v>
-      </c>
       <c r="AN21" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="AO21" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1415</v>
+        <v>1401</v>
       </c>
       <c r="AP21" s="17" t="str">
         <f ca="1">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="AQ21" s="19" t="s">
         <v>22</v>
@@ -5482,7 +5489,7 @@
       <c r="BR21" s="4"/>
       <c r="BS21" t="str">
         <f ca="1">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="BT21" t="str">
         <f t="shared" ref="BT21:BU30" ca="1" si="10">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
@@ -5490,17 +5497,17 @@
       </c>
       <c r="BU21" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1410</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="22" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1411', '1411', '1405', '0002', '1004', '0200', '0200', '1009', '0200', '1000', '0200', '1000', '0200', '1000', '0200', '0200', '0002', '1400', '1407', '1404', '1401', '1406', '1401', '1406', '1408', '1411', '1404', '1408', '1415', '1413', '1408', '1403', '1403', '1408', '1402', '1415', '1404', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'1406', '1411', '1412', '0002', '1004', '0200', '0200', '1009', '0200', '1000', '0200', '1000', '0200', '1000', '0200', '0200', '0002', '1403', '1410', '1402', '1401', '1400', '1408', '1412', '1409', '1403', '1408', '1406', '1406', '1410', '1405', '1404', '1410', '1401', '1414', '1404', '1402', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1411', '1411', '1405', '0002', '1004', '0200', '0200', '1009', '0200', '1000', '0200', '1000', '0200', '1000', '0200', '0200', '0002', '1400', '1407', '1404', '1401', '1406', '1401', '1406', '1408', '1411', '1404', '1408', '1415', '1413', '1408', '1403', '1403', '1408', '1402', '1415', '1404', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['1406', '1411', '1412', '0002', '1004', '0200', '0200', '1009', '0200', '1000', '0200', '1000', '0200', '1000', '0200', '0200', '0002', '1403', '1410', '1402', '1401', '1400', '1408', '1412', '1409', '1403', '1408', '1406', '1406', '1410', '1405', '1404', '1410', '1401', '1414', '1404', '1402', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>4</v>
@@ -5510,7 +5517,7 @@
       </c>
       <c r="F22" s="17" t="str">
         <f t="shared" ref="F22:H22" ca="1" si="11">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="G22" s="17" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -5518,7 +5525,7 @@
       </c>
       <c r="H22" s="17" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1405</v>
+        <v>1412</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>22</v>
@@ -5564,15 +5571,15 @@
       </c>
       <c r="W22" s="17" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="X22" s="17" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="Y22" s="17" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="Z22" s="17" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -5580,67 +5587,67 @@
       </c>
       <c r="AA22" s="17" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="AB22" s="17" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1401</v>
+        <v>1408</v>
       </c>
       <c r="AC22" s="17" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1406</v>
+        <v>1412</v>
       </c>
       <c r="AD22" s="17" t="str">
         <f t="shared" ca="1" si="8"/>
+        <v>1409</v>
+      </c>
+      <c r="AE22" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1403</v>
+      </c>
+      <c r="AF22" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>1408</v>
       </c>
-      <c r="AE22" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1411</v>
-      </c>
-      <c r="AF22" s="17" t="str">
+      <c r="AG22" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1406</v>
+      </c>
+      <c r="AH22" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1406</v>
+      </c>
+      <c r="AI22" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1410</v>
+      </c>
+      <c r="AJ22" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1405</v>
+      </c>
+      <c r="AK22" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>1404</v>
       </c>
-      <c r="AG22" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1408</v>
-      </c>
-      <c r="AH22" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1415</v>
-      </c>
-      <c r="AI22" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1413</v>
-      </c>
-      <c r="AJ22" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1408</v>
-      </c>
-      <c r="AK22" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1403</v>
-      </c>
       <c r="AL22" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1403</v>
+        <v>1410</v>
       </c>
       <c r="AM22" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="AN22" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
+        <v>1414</v>
+      </c>
+      <c r="AO22" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1404</v>
+      </c>
+      <c r="AP22" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>1402</v>
-      </c>
-      <c r="AO22" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1415</v>
-      </c>
-      <c r="AP22" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1404</v>
       </c>
       <c r="AQ22" s="19" t="s">
         <v>22</v>
@@ -5726,25 +5733,25 @@
       <c r="BR22" s="4"/>
       <c r="BS22" t="str">
         <f t="shared" ref="BS22:BS30" ca="1" si="12">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="BT22" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="BU22" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="23" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0008', '1411', '1413', '1412', '1403', '1402', '1415', '1408', '1412', '1408', '1413', '1415', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0308', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0008', '1406', '1411', '1414', '1402', '1411', '1415', '1406', '1412', '1410', '1405', '1414', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0308', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0008', '1411', '1413', '1412', '1403', '1402', '1415', '1408', '1412', '1408', '1413', '1415', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0308', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0008', '1406', '1411', '1414', '1402', '1411', '1415', '1406', '1412', '1410', '1405', '1414', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0308', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>4</v>
@@ -5832,47 +5839,47 @@
       </c>
       <c r="AF23" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
+        <v>1406</v>
+      </c>
+      <c r="AG23" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>1411</v>
       </c>
-      <c r="AG23" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1413</v>
-      </c>
       <c r="AH23" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
+        <v>1414</v>
+      </c>
+      <c r="AI23" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1402</v>
+      </c>
+      <c r="AJ23" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1411</v>
+      </c>
+      <c r="AK23" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1415</v>
+      </c>
+      <c r="AL23" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1406</v>
+      </c>
+      <c r="AM23" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>1412</v>
       </c>
-      <c r="AI23" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1403</v>
-      </c>
-      <c r="AJ23" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1402</v>
-      </c>
-      <c r="AK23" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1415</v>
-      </c>
-      <c r="AL23" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1408</v>
-      </c>
-      <c r="AM23" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1412</v>
-      </c>
       <c r="AN23" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="AO23" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1413</v>
+        <v>1405</v>
       </c>
       <c r="AP23" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="AQ23" s="19" t="s">
         <v>22</v>
@@ -5958,25 +5965,25 @@
       <c r="BR23" s="4"/>
       <c r="BS23" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="BT23" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1404</v>
+        <v>1413</v>
       </c>
       <c r="BU23" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="24" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1413', '1403', '1414', '0002', '1409', '1401', '1402', '1402', '0002', '1404', '1401', '1411', '1411', '1410', '1411', '1403', '1403', '1414', '1407', '1401', '1403', '1404', '1401', '1408', '1410', '0002', '1412', '1405', '1414', '1400', '1402', '1405', '1401', '1413', '1413', '1403', '1405', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1306', '1302', '1302', '1307', '1300', '1300'</v>
+        <v>'1415', '1402', '1403', '0002', '1413', '1402', '1415', '1412', '0002', '1403', '1401', '1412', '1406', '1408', '1407', '1400', '1405', '1400', '1409', '1400', '1415', '1413', '1402', '1406', '1410', '0002', '1410', '1405', '1414', '1400', '1407', '1415', '1408', '1408', '1402', '1408', '1414', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1306', '1302', '1302', '1307', '1300', '1300'</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1413', '1403', '1414', '0002', '1409', '1401', '1402', '1402', '0002', '1404', '1401', '1411', '1411', '1410', '1411', '1403', '1403', '1414', '1407', '1401', '1403', '1404', '1401', '1408', '1410', '0002', '1412', '1405', '1414', '1400', '1402', '1405', '1401', '1413', '1413', '1403', '1405', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1306', '1302', '1302', '1307', '1300', '1300'],</v>
+        <v>['1415', '1402', '1403', '0002', '1413', '1402', '1415', '1412', '0002', '1403', '1401', '1412', '1406', '1408', '1407', '1400', '1405', '1400', '1409', '1400', '1415', '1413', '1402', '1406', '1410', '0002', '1410', '1405', '1414', '1400', '1407', '1415', '1408', '1408', '1402', '1408', '1414', '0002', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1306', '1302', '1302', '1307', '1300', '1300'],</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>4</v>
@@ -5986,41 +5993,41 @@
       </c>
       <c r="F24" s="17" t="str">
         <f t="shared" ref="F24:Y27" ca="1" si="13">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="G24" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H24" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1414</v>
+        <v>1403</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>22</v>
       </c>
       <c r="J24" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="K24" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="L24" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1402</v>
+        <v>1415</v>
       </c>
       <c r="M24" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1402</v>
+        <v>1412</v>
       </c>
       <c r="N24" s="19" t="s">
         <v>22</v>
       </c>
       <c r="O24" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="P24" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -6028,55 +6035,55 @@
       </c>
       <c r="Q24" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="R24" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="S24" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="T24" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="U24" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="V24" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="W24" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1414</v>
+        <v>1400</v>
       </c>
       <c r="X24" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="Y24" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Z24" s="17" t="str">
         <f t="shared" ref="Z24:AD26" ca="1" si="14">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
-        <v>1403</v>
+        <v>1415</v>
       </c>
       <c r="AA24" s="17" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>1404</v>
+        <v>1413</v>
       </c>
       <c r="AB24" s="17" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="AC24" s="17" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="AD24" s="17" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -6087,7 +6094,7 @@
       </c>
       <c r="AF24" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="AG24" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6103,31 +6110,31 @@
       </c>
       <c r="AJ24" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
+        <v>1407</v>
+      </c>
+      <c r="AK24" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1415</v>
+      </c>
+      <c r="AL24" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1408</v>
+      </c>
+      <c r="AM24" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1408</v>
+      </c>
+      <c r="AN24" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>1402</v>
       </c>
-      <c r="AK24" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1405</v>
-      </c>
-      <c r="AL24" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1401</v>
-      </c>
-      <c r="AM24" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1413</v>
-      </c>
-      <c r="AN24" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1413</v>
-      </c>
       <c r="AO24" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="AP24" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1405</v>
+        <v>1414</v>
       </c>
       <c r="AQ24" s="19" t="s">
         <v>22</v>
@@ -6213,25 +6220,25 @@
       <c r="BR24" s="4"/>
       <c r="BS24" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="BT24" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1402</v>
+        <v>1414</v>
       </c>
       <c r="BU24" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1400</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="25" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1405', '1412', '1414', '0002', '1414', '1409', '1408', '1408', '0002', '1402', '1409', '1412', '1415', '1408', '1403', '1404', '1412', '1402', '1412', '1410', '1406', '1408', '1404', '1414', '1412', '0014', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0012', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'</v>
+        <v>'1401', '1415', '1411', '0002', '1409', '1410', '1401', '1415', '0002', '1412', '1401', '1409', '1400', '1411', '1415', '1411', '1406', '1407', '1402', '1409', '1415', '1414', '1400', '1412', '1408', '0014', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0012', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1405', '1412', '1414', '0002', '1414', '1409', '1408', '1408', '0002', '1402', '1409', '1412', '1415', '1408', '1403', '1404', '1412', '1402', '1412', '1410', '1406', '1408', '1404', '1414', '1412', '0014', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0012', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'],</v>
+        <v>['1401', '1415', '1411', '0002', '1409', '1410', '1401', '1415', '0002', '1412', '1401', '1409', '1400', '1411', '1415', '1411', '1406', '1407', '1402', '1409', '1415', '1414', '1400', '1412', '1408', '0014', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0012', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'],</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>4</v>
@@ -6241,101 +6248,101 @@
       </c>
       <c r="F25" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="G25" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="H25" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>22</v>
       </c>
       <c r="J25" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="K25" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="L25" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="M25" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1408</v>
+        <v>1415</v>
       </c>
       <c r="N25" s="19" t="s">
         <v>22</v>
       </c>
       <c r="O25" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1402</v>
+        <v>1412</v>
       </c>
       <c r="P25" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="Q25" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="R25" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1415</v>
+        <v>1400</v>
       </c>
       <c r="S25" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="T25" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1403</v>
+        <v>1415</v>
       </c>
       <c r="U25" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1404</v>
+        <v>1411</v>
       </c>
       <c r="V25" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="W25" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1402</v>
+        <v>1407</v>
       </c>
       <c r="X25" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1412</v>
+        <v>1402</v>
       </c>
       <c r="Y25" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="Z25" s="17" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>1406</v>
+        <v>1415</v>
       </c>
       <c r="AA25" s="17" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>1408</v>
+        <v>1414</v>
       </c>
       <c r="AB25" s="17" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="AC25" s="17" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="AD25" s="17" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="AE25" s="23" t="s">
         <v>26</v>
@@ -6457,25 +6464,25 @@
       <c r="BR25" s="4"/>
       <c r="BS25" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="BT25" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1414</v>
+        <v>1404</v>
       </c>
       <c r="BU25" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1406</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="26" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1412', '1406', '1415', '0002', '1409', '1409', '1402', '1407', '0002', '1406', '1407', '1401', '1404', '1405', '1406', '1409', '1404', '1401', '1406', '1407', '1400', '1411', '1411', '1401', '1410', '0002', '1412', '1414', '1412', '1401', '1400', '1413', '1405', '1409', '1402', '1403', '1412', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'</v>
+        <v>'1401', '1413', '1408', '0002', '1405', '1403', '1400', '1414', '0002', '1402', '1409', '1403', '1404', '1411', '1404', '1411', '1400', '1403', '1411', '1411', '1413', '1411', '1413', '1413', '1407', '0002', '1412', '1409', '1412', '1401', '1405', '1411', '1407', '1412', '1413', '1412', '1407', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1412', '1406', '1415', '0002', '1409', '1409', '1402', '1407', '0002', '1406', '1407', '1401', '1404', '1405', '1406', '1409', '1404', '1401', '1406', '1407', '1400', '1411', '1411', '1401', '1410', '0002', '1412', '1414', '1412', '1401', '1400', '1413', '1405', '1409', '1402', '1403', '1412', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'],</v>
+        <v>['1401', '1413', '1408', '0002', '1405', '1403', '1400', '1414', '0002', '1402', '1409', '1403', '1404', '1411', '1404', '1411', '1400', '1403', '1411', '1411', '1413', '1411', '1413', '1413', '1407', '0002', '1412', '1409', '1412', '1401', '1405', '1411', '1407', '1412', '1413', '1412', '1407', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'],</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>4</v>
@@ -6485,49 +6492,49 @@
       </c>
       <c r="F26" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="G26" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1406</v>
+        <v>1413</v>
       </c>
       <c r="H26" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1415</v>
+        <v>1408</v>
       </c>
       <c r="I26" s="19" t="s">
         <v>22</v>
       </c>
       <c r="J26" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="K26" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="L26" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="M26" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1407</v>
+        <v>1414</v>
       </c>
       <c r="N26" s="19" t="s">
         <v>22</v>
       </c>
       <c r="O26" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="P26" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="Q26" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="R26" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -6535,35 +6542,35 @@
       </c>
       <c r="S26" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1405</v>
+        <v>1411</v>
       </c>
       <c r="T26" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="U26" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="V26" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="W26" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="X26" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1406</v>
+        <v>1411</v>
       </c>
       <c r="Y26" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1407</v>
+        <v>1411</v>
       </c>
       <c r="Z26" s="17" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>1400</v>
+        <v>1413</v>
       </c>
       <c r="AA26" s="17" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -6571,15 +6578,15 @@
       </c>
       <c r="AB26" s="17" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="AC26" s="17" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>1401</v>
+        <v>1413</v>
       </c>
       <c r="AD26" s="17" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="AE26" s="13" t="s">
         <v>22</v>
@@ -6590,7 +6597,7 @@
       </c>
       <c r="AG26" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="AH26" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6602,31 +6609,31 @@
       </c>
       <c r="AJ26" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1400</v>
+        <v>1405</v>
       </c>
       <c r="AK26" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
+        <v>1411</v>
+      </c>
+      <c r="AL26" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1407</v>
+      </c>
+      <c r="AM26" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1412</v>
+      </c>
+      <c r="AN26" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>1413</v>
       </c>
-      <c r="AL26" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1405</v>
-      </c>
-      <c r="AM26" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1409</v>
-      </c>
-      <c r="AN26" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1402</v>
-      </c>
       <c r="AO26" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1403</v>
+        <v>1412</v>
       </c>
       <c r="AP26" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="AQ26" s="19" t="s">
         <v>22</v>
@@ -6712,25 +6719,25 @@
       <c r="BR26" s="4"/>
       <c r="BS26" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="BT26" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1404</v>
+        <v>1414</v>
       </c>
       <c r="BU26" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1404</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="27" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1402', '1402', '1412', '0002', '1408', '1400', '1404', '1414', '0002', '1408', '1412', '1400', '1411', '1407', '1406', '1405', '1405', '1405', '1411', '1401', '1405', '1413', '1402', '1404', '1414', '0002', '1414', '1406', '1409', '1414', '1414', '1411', '1403', '1405', '1402', '1405', '1402', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'</v>
+        <v>'1407', '1404', '1401', '0002', '1407', '1413', '1404', '1405', '0002', '1400', '1414', '1414', '1409', '1414', '1407', '1403', '1407', '1414', '1410', '1403', '1412', '1408', '1408', '1403', '1414', '0002', '1412', '1403', '1401', '1414', '1411', '1402', '1407', '1415', '1408', '1415', '1406', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1402', '1402', '1412', '0002', '1408', '1400', '1404', '1414', '0002', '1408', '1412', '1400', '1411', '1407', '1406', '1405', '1405', '1405', '1411', '1401', '1405', '1413', '1402', '1404', '1414', '0002', '1414', '1406', '1409', '1414', '1414', '1411', '1403', '1405', '1402', '1405', '1402', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'],</v>
+        <v>['1407', '1404', '1401', '0002', '1407', '1413', '1404', '1405', '0002', '1400', '1414', '1414', '1409', '1414', '1407', '1403', '1407', '1414', '1410', '1403', '1412', '1408', '1408', '1403', '1414', '0002', '1412', '1403', '1401', '1414', '1411', '1402', '1407', '1415', '1408', '1415', '1406', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'],</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>4</v>
@@ -6740,26 +6747,26 @@
       </c>
       <c r="F27" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1402</v>
+        <v>1407</v>
       </c>
       <c r="G27" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="H27" s="17" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="I27" s="19" t="s">
         <v>22</v>
       </c>
       <c r="J27" s="17" t="str">
         <f t="shared" ref="J27:AC33" ca="1" si="15">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="K27" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1400</v>
+        <v>1413</v>
       </c>
       <c r="L27" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6767,70 +6774,70 @@
       </c>
       <c r="M27" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1414</v>
+        <v>1405</v>
       </c>
       <c r="N27" s="19" t="s">
         <v>22</v>
       </c>
       <c r="O27" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1408</v>
+        <v>1400</v>
       </c>
       <c r="P27" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="Q27" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1400</v>
+        <v>1414</v>
       </c>
       <c r="R27" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="S27" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1407</v>
+        <v>1414</v>
       </c>
       <c r="T27" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="U27" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="V27" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="W27" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1405</v>
+        <v>1414</v>
       </c>
       <c r="X27" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="Y27" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="Z27" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1405</v>
+        <v>1412</v>
       </c>
       <c r="AA27" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="AB27" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1402</v>
+        <v>1408</v>
       </c>
       <c r="AC27" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="AD27" s="17" t="str">
         <f t="shared" ref="AD27" ca="1" si="16">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
@@ -6841,47 +6848,47 @@
       </c>
       <c r="AF27" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
+        <v>1412</v>
+      </c>
+      <c r="AG27" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1403</v>
+      </c>
+      <c r="AH27" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1401</v>
+      </c>
+      <c r="AI27" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>1414</v>
       </c>
-      <c r="AG27" s="17" t="str">
+      <c r="AJ27" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1411</v>
+      </c>
+      <c r="AK27" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1402</v>
+      </c>
+      <c r="AL27" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1407</v>
+      </c>
+      <c r="AM27" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1415</v>
+      </c>
+      <c r="AN27" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1408</v>
+      </c>
+      <c r="AO27" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1415</v>
+      </c>
+      <c r="AP27" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>1406</v>
-      </c>
-      <c r="AH27" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1409</v>
-      </c>
-      <c r="AI27" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1414</v>
-      </c>
-      <c r="AJ27" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1414</v>
-      </c>
-      <c r="AK27" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1411</v>
-      </c>
-      <c r="AL27" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1403</v>
-      </c>
-      <c r="AM27" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1405</v>
-      </c>
-      <c r="AN27" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1402</v>
-      </c>
-      <c r="AO27" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1405</v>
-      </c>
-      <c r="AP27" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1402</v>
       </c>
       <c r="AQ27" s="19" t="s">
         <v>22</v>
@@ -6967,25 +6974,25 @@
       <c r="BR27" s="4"/>
       <c r="BS27" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="BT27" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="BU27" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1406</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="28" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0011', '0001', '0001', '0001', '0001', '0001', '0001', '0011', '0001', '0001', '0001', '0011', '0001', '0001', '0001', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0008', '1413', '1415', '1409', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'</v>
+        <v>'0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0011', '0001', '0001', '0001', '0001', '0001', '0001', '0011', '0001', '0001', '0001', '0011', '0001', '0001', '0001', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0008', '1409', '1408', '1403', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0011', '0001', '0001', '0001', '0001', '0001', '0001', '0011', '0001', '0001', '0001', '0011', '0001', '0001', '0001', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0008', '1413', '1415', '1409', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'],</v>
+        <v>['0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0011', '0001', '0001', '0001', '0001', '0001', '0001', '0011', '0001', '0001', '0001', '0011', '0001', '0001', '0001', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0008', '1409', '1408', '1403', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'],</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>4</v>
@@ -7097,15 +7104,15 @@
       </c>
       <c r="AN28" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="AO28" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1415</v>
+        <v>1408</v>
       </c>
       <c r="AP28" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="AQ28" s="19" t="s">
         <v>22</v>
@@ -7191,25 +7198,25 @@
       <c r="BR28" s="4"/>
       <c r="BS28" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="BT28" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1411</v>
+        <v>1402</v>
       </c>
       <c r="BU28" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1404</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="29" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1402', '1409', '1403', '0002', '1406', '1400', '1404', '1400', '0002', '1415', '1411', '1408', '1404', '1412', '1414', '0002', '1409', '1415', '1413', '0002', '1413', '1409', '1401', '1412', '1408', '1406', '1413', '1408', '1405', '1400', '1410', '1405', '1408', '0002', '1411', '1405', '1403', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '1315', '0100', '1303', '1300', '1300'</v>
+        <v>'1411', '1413', '1412', '0002', '1412', '1403', '1404', '1404', '0002', '1411', '1413', '1412', '1413', '1415', '1409', '0002', '1403', '1407', '1413', '0002', '1402', '1410', '1412', '1406', '1402', '1410', '1406', '1407', '1409', '1409', '1410', '1409', '1412', '0002', '1406', '1410', '1401', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '1315', '0100', '1303', '1300', '1300'</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1402', '1409', '1403', '0002', '1406', '1400', '1404', '1400', '0002', '1415', '1411', '1408', '1404', '1412', '1414', '0002', '1409', '1415', '1413', '0002', '1413', '1409', '1401', '1412', '1408', '1406', '1413', '1408', '1405', '1400', '1410', '1405', '1408', '0002', '1411', '1405', '1403', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '1315', '0100', '1303', '1300', '1300'],</v>
+        <v>['1411', '1413', '1412', '0002', '1412', '1403', '1404', '1404', '0002', '1411', '1413', '1412', '1413', '1415', '1409', '0002', '1403', '1407', '1413', '0002', '1402', '1410', '1412', '1406', '1402', '1410', '1406', '1407', '1409', '1409', '1410', '1409', '1412', '0002', '1406', '1410', '1401', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '1315', '0100', '1303', '1300', '1300'],</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>4</v>
@@ -7219,26 +7226,26 @@
       </c>
       <c r="F29" s="17" t="str">
         <f t="shared" ref="F29:H33" ca="1" si="17">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
-        <v>1402</v>
+        <v>1411</v>
       </c>
       <c r="G29" s="17" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="H29" s="17" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>1403</v>
+        <v>1412</v>
       </c>
       <c r="I29" s="19" t="s">
         <v>22</v>
       </c>
       <c r="J29" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1406</v>
+        <v>1412</v>
       </c>
       <c r="K29" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="L29" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -7246,45 +7253,45 @@
       </c>
       <c r="M29" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="N29" s="19" t="s">
         <v>22</v>
       </c>
       <c r="O29" s="17" t="str">
         <f t="shared" ref="M29:S40" ca="1" si="18">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="P29" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="Q29" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="R29" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1404</v>
+        <v>1413</v>
       </c>
       <c r="S29" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="T29" s="17" t="str">
         <f t="shared" ref="T29:AK36" ca="1" si="19">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="U29" s="19" t="s">
         <v>22</v>
       </c>
       <c r="V29" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="W29" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="X29" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -7295,43 +7302,43 @@
       </c>
       <c r="Z29" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1413</v>
+        <v>1402</v>
       </c>
       <c r="AA29" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="AB29" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1401</v>
+        <v>1412</v>
       </c>
       <c r="AC29" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="AD29" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="AE29" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="AF29" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="AG29" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="AH29" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="AI29" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1400</v>
+        <v>1409</v>
       </c>
       <c r="AJ29" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -7339,26 +7346,26 @@
       </c>
       <c r="AK29" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="AL29" s="17" t="str">
         <f t="shared" ref="AL29:AL32" ca="1" si="20">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="AM29" s="13" t="s">
         <v>22</v>
       </c>
       <c r="AN29" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="AO29" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1405</v>
+        <v>1410</v>
       </c>
       <c r="AP29" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="AQ29" s="19" t="s">
         <v>22</v>
@@ -7444,25 +7451,25 @@
       <c r="BR29" s="4"/>
       <c r="BS29" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="BT29" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1407</v>
+        <v>1413</v>
       </c>
       <c r="BU29" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1411</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="30" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1402', '1402', '1400', '0002', '1405', '1415', '1415', '1401', '0002', '1411', '1412', '1415', '1407', '1409', '1415', '0002', '1407', '1402', '1406', '0002', '1413', '1404', '1415', '1400', '1409', '1413', '1405', '1411', '1413', '1409', '1413', '1405', '1402', '0002', '1409', '1412', '1407', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '1314', '0100', '1303', '1300', '1300'</v>
+        <v>'1415', '1412', '1401', '0002', '1408', '1408', '1413', '1412', '0002', '1413', '1400', '1408', '1412', '1412', '1402', '0002', '1407', '1407', '1411', '0002', '1400', '1406', '1402', '1400', '1411', '1409', '1401', '1405', '1414', '1406', '1408', '1413', '1411', '0002', '1404', '1410', '1409', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '1314', '0100', '1303', '1300', '1300'</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1402', '1402', '1400', '0002', '1405', '1415', '1415', '1401', '0002', '1411', '1412', '1415', '1407', '1409', '1415', '0002', '1407', '1402', '1406', '0002', '1413', '1404', '1415', '1400', '1409', '1413', '1405', '1411', '1413', '1409', '1413', '1405', '1402', '0002', '1409', '1412', '1407', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '1314', '0100', '1303', '1300', '1300'],</v>
+        <v>['1415', '1412', '1401', '0002', '1408', '1408', '1413', '1412', '0002', '1413', '1400', '1408', '1412', '1412', '1402', '0002', '1407', '1407', '1411', '0002', '1400', '1406', '1402', '1400', '1411', '1409', '1401', '1405', '1414', '1406', '1408', '1413', '1411', '0002', '1404', '1410', '1409', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '1314', '0100', '1303', '1300', '1300'],</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>4</v>
@@ -7472,61 +7479,61 @@
       </c>
       <c r="F30" s="17" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>1402</v>
+        <v>1415</v>
       </c>
       <c r="G30" s="17" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>1402</v>
+        <v>1412</v>
       </c>
       <c r="H30" s="17" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="I30" s="19" t="s">
         <v>22</v>
       </c>
       <c r="J30" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="K30" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1415</v>
+        <v>1408</v>
       </c>
       <c r="L30" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="M30" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1401</v>
+        <v>1412</v>
       </c>
       <c r="N30" s="19" t="s">
         <v>22</v>
       </c>
       <c r="O30" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="P30" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1412</v>
+        <v>1400</v>
       </c>
       <c r="Q30" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1415</v>
+        <v>1408</v>
       </c>
       <c r="R30" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1407</v>
+        <v>1412</v>
       </c>
       <c r="S30" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="T30" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1415</v>
+        <v>1402</v>
       </c>
       <c r="U30" s="19" t="s">
         <v>22</v>
@@ -7537,26 +7544,26 @@
       </c>
       <c r="W30" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1402</v>
+        <v>1407</v>
       </c>
       <c r="X30" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1406</v>
+        <v>1411</v>
       </c>
       <c r="Y30" s="13" t="s">
         <v>22</v>
       </c>
       <c r="Z30" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1413</v>
+        <v>1400</v>
       </c>
       <c r="AA30" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="AB30" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1415</v>
+        <v>1402</v>
       </c>
       <c r="AC30" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -7564,54 +7571,54 @@
       </c>
       <c r="AD30" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="AE30" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="AF30" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="AG30" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="AH30" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI30" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="AJ30" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="AK30" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1405</v>
+        <v>1413</v>
       </c>
       <c r="AL30" s="17" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>1402</v>
+        <v>1411</v>
       </c>
       <c r="AM30" s="13" t="s">
         <v>22</v>
       </c>
       <c r="AN30" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
+        <v>1404</v>
+      </c>
+      <c r="AO30" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1410</v>
+      </c>
+      <c r="AP30" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>1409</v>
-      </c>
-      <c r="AO30" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1412</v>
-      </c>
-      <c r="AP30" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1407</v>
       </c>
       <c r="AQ30" s="19" t="s">
         <v>22</v>
@@ -7697,25 +7704,25 @@
       <c r="BR30" s="4"/>
       <c r="BS30" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="BT30" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1411</v>
+        <v>1400</v>
       </c>
       <c r="BU30" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1405</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="31" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1401', '1404', '1411', '0002', '1404', '1406', '1405', '1406', '0002', '1411', '1405', '1401', '1410', '1412', '1414', '0002', '1404', '1402', '1413', '0002', '1415', '1412', '1414', '1401', '1413', '1407', '1400', '1406', '1407', '1409', '1405', '1401', '1411', '0002', '1400', '1414', '1401', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'</v>
+        <v>'1404', '1414', '1414', '0002', '1413', '1403', '1401', '1405', '0002', '1408', '1413', '1402', '1408', '1408', '1407', '0002', '1407', '1415', '1411', '0002', '1401', '1408', '1401', '1408', '1407', '1408', '1407', '1409', '1411', '1404', '1413', '1401', '1401', '0002', '1405', '1400', '1408', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1401', '1404', '1411', '0002', '1404', '1406', '1405', '1406', '0002', '1411', '1405', '1401', '1410', '1412', '1414', '0002', '1404', '1402', '1413', '0002', '1415', '1412', '1414', '1401', '1413', '1407', '1400', '1406', '1407', '1409', '1405', '1401', '1411', '0002', '1400', '1414', '1401', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'],</v>
+        <v>['1404', '1414', '1414', '0002', '1413', '1403', '1401', '1405', '0002', '1408', '1413', '1402', '1408', '1408', '1407', '0002', '1407', '1415', '1411', '0002', '1401', '1408', '1401', '1408', '1407', '1408', '1407', '1409', '1411', '1404', '1413', '1401', '1401', '0002', '1405', '1400', '1408', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'],</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>4</v>
@@ -7725,123 +7732,123 @@
       </c>
       <c r="F31" s="17" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="G31" s="17" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>1404</v>
+        <v>1414</v>
       </c>
       <c r="H31" s="17" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="I31" s="19" t="s">
         <v>22</v>
       </c>
       <c r="J31" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1404</v>
+        <v>1413</v>
       </c>
       <c r="K31" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="L31" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="M31" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="N31" s="19" t="s">
         <v>22</v>
       </c>
       <c r="O31" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="P31" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1405</v>
+        <v>1413</v>
       </c>
       <c r="Q31" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="R31" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="S31" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="T31" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1414</v>
+        <v>1407</v>
       </c>
       <c r="U31" s="19" t="s">
         <v>22</v>
       </c>
       <c r="V31" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="W31" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1402</v>
+        <v>1415</v>
       </c>
       <c r="X31" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="Y31" s="13" t="s">
         <v>22</v>
       </c>
       <c r="Z31" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1415</v>
+        <v>1401</v>
       </c>
       <c r="AA31" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="AB31" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1414</v>
+        <v>1401</v>
       </c>
       <c r="AC31" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1401</v>
+        <v>1408</v>
       </c>
       <c r="AD31" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="AE31" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="AF31" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1400</v>
+        <v>1407</v>
       </c>
       <c r="AG31" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="AH31" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1407</v>
+        <v>1411</v>
       </c>
       <c r="AI31" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="AJ31" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1405</v>
+        <v>1413</v>
       </c>
       <c r="AK31" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -7849,22 +7856,22 @@
       </c>
       <c r="AL31" s="17" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>1411</v>
+        <v>1401</v>
       </c>
       <c r="AM31" s="13" t="s">
         <v>22</v>
       </c>
       <c r="AN31" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
+        <v>1405</v>
+      </c>
+      <c r="AO31" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>1400</v>
       </c>
-      <c r="AO31" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1414</v>
-      </c>
       <c r="AP31" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1401</v>
+        <v>1408</v>
       </c>
       <c r="AQ31" s="19" t="s">
         <v>22</v>
@@ -7952,11 +7959,11 @@
     <row r="32" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1410', '1402', '1409', '0002', '1409', '1411', '1404', '1415', '0002', '1415', '1415', '1404', '1409', '1400', '1406', '0002', '1412', '1400', '1405', '0002', '1415', '1403', '1407', '1406', '1405', '1404', '1408', '1407', '1408', '1400', '1414', '1413', '1404', '0002', '1409', '1408', '1405', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1305', '1304', '1304', '1308', '1300', '1300'</v>
+        <v>'1405', '1405', '1404', '0002', '1407', '1405', '1412', '1406', '0002', '1406', '1411', '1415', '1412', '1406', '1413', '0002', '1405', '1413', '1410', '0002', '1406', '1411', '1414', '1412', '1410', '1415', '1409', '1403', '1404', '1411', '1401', '1405', '1406', '0002', '1413', '1405', '1414', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1305', '1304', '1304', '1308', '1300', '1300'</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1410', '1402', '1409', '0002', '1409', '1411', '1404', '1415', '0002', '1415', '1415', '1404', '1409', '1400', '1406', '0002', '1412', '1400', '1405', '0002', '1415', '1403', '1407', '1406', '1405', '1404', '1408', '1407', '1408', '1400', '1414', '1413', '1404', '0002', '1409', '1408', '1405', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1305', '1304', '1304', '1308', '1300', '1300'],</v>
+        <v>['1405', '1405', '1404', '0002', '1407', '1405', '1412', '1406', '0002', '1406', '1411', '1415', '1412', '1406', '1413', '0002', '1405', '1413', '1410', '0002', '1406', '1411', '1414', '1412', '1410', '1415', '1409', '1403', '1404', '1411', '1401', '1405', '1406', '0002', '1413', '1405', '1414', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1305', '1304', '1304', '1308', '1300', '1300'],</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>4</v>
@@ -7966,146 +7973,146 @@
       </c>
       <c r="F32" s="17" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="G32" s="17" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="H32" s="17" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="I32" s="19" t="s">
         <v>22</v>
       </c>
       <c r="J32" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="K32" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="L32" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1404</v>
+        <v>1412</v>
       </c>
       <c r="M32" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="N32" s="19" t="s">
         <v>22</v>
       </c>
       <c r="O32" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="P32" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="Q32" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1404</v>
+        <v>1415</v>
       </c>
       <c r="R32" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="S32" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1400</v>
+        <v>1406</v>
       </c>
       <c r="T32" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1406</v>
+        <v>1413</v>
       </c>
       <c r="U32" s="19" t="s">
         <v>22</v>
       </c>
       <c r="V32" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1412</v>
+        <v>1405</v>
       </c>
       <c r="W32" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1400</v>
+        <v>1413</v>
       </c>
       <c r="X32" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1405</v>
+        <v>1410</v>
       </c>
       <c r="Y32" s="13" t="s">
         <v>22</v>
       </c>
       <c r="Z32" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="AA32" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1403</v>
+        <v>1411</v>
       </c>
       <c r="AB32" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1407</v>
+        <v>1414</v>
       </c>
       <c r="AC32" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1406</v>
+        <v>1412</v>
       </c>
       <c r="AD32" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1405</v>
+        <v>1410</v>
       </c>
       <c r="AE32" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1404</v>
+        <v>1415</v>
       </c>
       <c r="AF32" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="AG32" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="AH32" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="AI32" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1400</v>
+        <v>1411</v>
       </c>
       <c r="AJ32" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1414</v>
+        <v>1401</v>
       </c>
       <c r="AK32" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1413</v>
+        <v>1405</v>
       </c>
       <c r="AL32" s="17" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="AM32" s="13" t="s">
         <v>22</v>
       </c>
       <c r="AN32" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="AO32" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="AP32" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1405</v>
+        <v>1414</v>
       </c>
       <c r="AQ32" s="19" t="s">
         <v>22</v>
@@ -8193,11 +8200,11 @@
     <row r="33" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1400', '1402', '1406', '0002', '1408', '1413', '1402', '1400', '0014', '0001', '0001', '0001', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0012', '1414', '1414', '1401', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '0307', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'1412', '1404', '1400', '0002', '1408', '1407', '1409', '1412', '0014', '0001', '0001', '0001', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0012', '1414', '1408', '1407', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '0307', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1400', '1402', '1406', '0002', '1408', '1413', '1402', '1400', '0014', '0001', '0001', '0001', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0012', '1414', '1414', '1401', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '0307', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['1412', '1404', '1400', '0002', '1408', '1407', '1409', '1412', '0014', '0001', '0001', '0001', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0012', '1414', '1408', '1407', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '0307', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>4</v>
@@ -8207,15 +8214,15 @@
       </c>
       <c r="F33" s="17" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>1400</v>
+        <v>1412</v>
       </c>
       <c r="G33" s="17" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="H33" s="17" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="I33" s="19" t="s">
         <v>22</v>
@@ -8226,15 +8233,15 @@
       </c>
       <c r="K33" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="L33" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1402</v>
+        <v>1409</v>
       </c>
       <c r="M33" s="17" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1400</v>
+        <v>1412</v>
       </c>
       <c r="N33" s="23" t="s">
         <v>26</v>
@@ -8320,11 +8327,11 @@
       </c>
       <c r="AO33" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="AP33" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1401</v>
+        <v>1407</v>
       </c>
       <c r="AQ33" s="19" t="s">
         <v>22</v>
@@ -8412,11 +8419,11 @@
     <row r="34" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'0001', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0012', '1405', '1408', '1412', '1407', '1404', '1413', '0002', '1413', '1400', '1412', '0002', '1414', '1412', '1405', '1415', '0002', '1413', '1412', '1415', '1411', '1400', '1413', '1405', '1400', '0002', '1405', '1415', '1407', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'0001', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0012', '1406', '1412', '1400', '1413', '1412', '1410', '0002', '1414', '1410', '1403', '0002', '1412', '1403', '1406', '1411', '0002', '1406', '1412', '1403', '1414', '1412', '1401', '1401', '1402', '0002', '1411', '1405', '1406', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['0001', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0012', '1405', '1408', '1412', '1407', '1404', '1413', '0002', '1413', '1400', '1412', '0002', '1414', '1412', '1405', '1415', '0002', '1413', '1412', '1415', '1411', '1400', '1413', '1405', '1400', '0002', '1405', '1415', '1407', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0001', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0012', '1406', '1412', '1400', '1413', '1412', '1410', '0002', '1414', '1410', '1403', '0002', '1412', '1403', '1406', '1411', '0002', '1406', '1412', '1403', '1414', '1412', '1401', '1401', '1402', '0002', '1411', '1405', '1406', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>4</v>
@@ -8453,68 +8460,68 @@
       </c>
       <c r="O34" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="P34" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="Q34" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1412</v>
+        <v>1400</v>
       </c>
       <c r="R34" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1407</v>
+        <v>1413</v>
       </c>
       <c r="S34" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1404</v>
+        <v>1412</v>
       </c>
       <c r="T34" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="U34" s="19" t="s">
         <v>22</v>
       </c>
       <c r="V34" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="W34" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1400</v>
+        <v>1410</v>
       </c>
       <c r="X34" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1412</v>
+        <v>1403</v>
       </c>
       <c r="Y34" s="13" t="s">
         <v>22</v>
       </c>
       <c r="Z34" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="AA34" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1412</v>
+        <v>1403</v>
       </c>
       <c r="AB34" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="AC34" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="AD34" s="19" t="s">
         <v>22</v>
       </c>
       <c r="AE34" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="AF34" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8522,42 +8529,42 @@
       </c>
       <c r="AG34" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1415</v>
+        <v>1403</v>
       </c>
       <c r="AH34" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
+        <v>1414</v>
+      </c>
+      <c r="AI34" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1412</v>
+      </c>
+      <c r="AJ34" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1401</v>
+      </c>
+      <c r="AK34" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1401</v>
+      </c>
+      <c r="AL34" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1402</v>
+      </c>
+      <c r="AM34" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN34" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>1411</v>
       </c>
-      <c r="AI34" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1400</v>
-      </c>
-      <c r="AJ34" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1413</v>
-      </c>
-      <c r="AK34" s="17" t="str">
+      <c r="AO34" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>1405</v>
       </c>
-      <c r="AL34" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1400</v>
-      </c>
-      <c r="AM34" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN34" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1405</v>
-      </c>
-      <c r="AO34" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1415</v>
-      </c>
       <c r="AP34" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="AQ34" s="19" t="s">
         <v>22</v>
@@ -8645,11 +8652,11 @@
     <row r="35" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1414', '1403', '1410', '1405', '1410', '1411', '1400', '1406', '0002', '1403', '1403', '1401', '1400', '1407', '1409', '0002', '1410', '1407', '1406', '0002', '1402', '1407', '1413', '1406', '0002', '1410', '1404', '1412', '1411', '1411', '1410', '1409', '1406', '0002', '1415', '1406', '1410', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'1406', '1411', '1407', '1408', '1408', '1414', '1415', '1411', '0002', '1408', '1403', '1405', '1411', '1415', '1411', '0002', '1403', '1402', '1414', '0002', '1409', '1407', '1411', '1412', '0002', '1400', '1405', '1403', '1407', '1413', '1408', '1407', '1405', '0002', '1407', '1405', '1414', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1414', '1403', '1410', '1405', '1410', '1411', '1400', '1406', '0002', '1403', '1403', '1401', '1400', '1407', '1409', '0002', '1410', '1407', '1406', '0002', '1402', '1407', '1413', '1406', '0002', '1410', '1404', '1412', '1411', '1411', '1410', '1409', '1406', '0002', '1415', '1406', '1410', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['1406', '1411', '1407', '1408', '1408', '1414', '1415', '1411', '0002', '1408', '1403', '1405', '1411', '1415', '1411', '0002', '1403', '1402', '1414', '0002', '1409', '1407', '1411', '1412', '0002', '1400', '1405', '1403', '1407', '1413', '1408', '1407', '1405', '0002', '1407', '1405', '1414', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>4</v>
@@ -8658,43 +8665,43 @@
         <v>32</v>
       </c>
       <c r="F35" s="17" t="str">
-        <f t="shared" ref="F33:L40" ca="1" si="21">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
-        <v>1414</v>
+        <f t="shared" ref="F35:L40" ca="1" si="21">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
+        <v>1406</v>
       </c>
       <c r="G35" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1403</v>
+        <v>1411</v>
       </c>
       <c r="H35" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="I35" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="J35" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="K35" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="L35" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1400</v>
+        <v>1415</v>
       </c>
       <c r="M35" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1406</v>
+        <v>1411</v>
       </c>
       <c r="N35" s="19" t="s">
         <v>22</v>
       </c>
       <c r="O35" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="P35" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -8702,41 +8709,41 @@
       </c>
       <c r="Q35" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1401</v>
+        <v>1405</v>
       </c>
       <c r="R35" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1400</v>
+        <v>1411</v>
       </c>
       <c r="S35" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1407</v>
+        <v>1415</v>
       </c>
       <c r="T35" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="U35" s="19" t="s">
         <v>22</v>
       </c>
       <c r="V35" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1410</v>
+        <v>1403</v>
       </c>
       <c r="W35" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="X35" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1406</v>
+        <v>1414</v>
       </c>
       <c r="Y35" s="13" t="s">
         <v>22</v>
       </c>
       <c r="Z35" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1402</v>
+        <v>1409</v>
       </c>
       <c r="AA35" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -8744,61 +8751,61 @@
       </c>
       <c r="AB35" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="AC35" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1406</v>
+        <v>1412</v>
       </c>
       <c r="AD35" s="19" t="s">
         <v>22</v>
       </c>
       <c r="AE35" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1410</v>
+        <v>1400</v>
       </c>
       <c r="AF35" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="AG35" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1412</v>
+        <v>1403</v>
       </c>
       <c r="AH35" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="AI35" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="AJ35" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="AK35" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="AL35" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="AM35" s="13" t="s">
         <v>22</v>
       </c>
       <c r="AN35" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="AO35" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="AP35" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="AQ35" s="19" t="s">
         <v>22</v>
@@ -8886,11 +8893,11 @@
     <row r="36" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1410', '1405', '1401', '1408', '1405', '1413', '1412', '1403', '0002', '1413', '1412', '1414', '1412', '1407', '1412', '0002', '1402', '1410', '1410', '0002', '1411', '1404', '1401', '1409', '0002', '1407', '1414', '1404', '1407', '1401', '1414', '1402', '1408', '0002', '1414', '1401', '1400', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'1400', '1407', '1406', '1414', '1406', '1400', '1414', '1402', '0002', '1409', '1414', '1415', '1401', '1410', '1408', '0002', '1407', '1410', '1400', '0002', '1409', '1400', '1408', '1415', '0002', '1414', '1404', '1401', '1401', '1403', '1405', '1414', '1400', '0002', '1407', '1412', '1404', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1410', '1405', '1401', '1408', '1405', '1413', '1412', '1403', '0002', '1413', '1412', '1414', '1412', '1407', '1412', '0002', '1402', '1410', '1410', '0002', '1411', '1404', '1401', '1409', '0002', '1407', '1414', '1404', '1407', '1401', '1414', '1402', '1408', '0002', '1414', '1401', '1400', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['1400', '1407', '1406', '1414', '1406', '1400', '1414', '1402', '0002', '1409', '1414', '1415', '1401', '1410', '1408', '0002', '1407', '1410', '1400', '0002', '1409', '1400', '1408', '1415', '0002', '1414', '1404', '1401', '1401', '1403', '1405', '1414', '1400', '0002', '1407', '1412', '1404', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>4</v>
@@ -8900,69 +8907,69 @@
       </c>
       <c r="F36" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1410</v>
+        <v>1400</v>
       </c>
       <c r="G36" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="H36" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1401</v>
+        <v>1406</v>
       </c>
       <c r="I36" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1408</v>
+        <v>1414</v>
       </c>
       <c r="J36" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="K36" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1413</v>
+        <v>1400</v>
       </c>
       <c r="L36" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="M36" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="N36" s="19" t="s">
         <v>22</v>
       </c>
       <c r="O36" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="P36" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="Q36" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="R36" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="S36" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="T36" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="U36" s="19" t="s">
         <v>22</v>
       </c>
       <c r="V36" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1402</v>
+        <v>1407</v>
       </c>
       <c r="W36" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -8970,76 +8977,76 @@
       </c>
       <c r="X36" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1410</v>
+        <v>1400</v>
       </c>
       <c r="Y36" s="13" t="s">
         <v>22</v>
       </c>
       <c r="Z36" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="AA36" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="AB36" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1401</v>
+        <v>1408</v>
       </c>
       <c r="AC36" s="17" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1409</v>
+        <v>1415</v>
       </c>
       <c r="AD36" s="19" t="s">
         <v>22</v>
       </c>
       <c r="AE36" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
+        <v>1414</v>
+      </c>
+      <c r="AF36" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1404</v>
+      </c>
+      <c r="AG36" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1401</v>
+      </c>
+      <c r="AH36" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1401</v>
+      </c>
+      <c r="AI36" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1403</v>
+      </c>
+      <c r="AJ36" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1405</v>
+      </c>
+      <c r="AK36" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1414</v>
+      </c>
+      <c r="AL36" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1400</v>
+      </c>
+      <c r="AM36" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN36" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>1407</v>
       </c>
-      <c r="AF36" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1414</v>
-      </c>
-      <c r="AG36" s="17" t="str">
+      <c r="AO36" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1412</v>
+      </c>
+      <c r="AP36" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>1404</v>
-      </c>
-      <c r="AH36" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1407</v>
-      </c>
-      <c r="AI36" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1401</v>
-      </c>
-      <c r="AJ36" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1414</v>
-      </c>
-      <c r="AK36" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1402</v>
-      </c>
-      <c r="AL36" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1408</v>
-      </c>
-      <c r="AM36" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN36" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1414</v>
-      </c>
-      <c r="AO36" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1401</v>
-      </c>
-      <c r="AP36" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1400</v>
       </c>
       <c r="AQ36" s="19" t="s">
         <v>22</v>
@@ -9127,11 +9134,11 @@
     <row r="37" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1403', '1409', '1400', '1402', '1413', '1414', '1406', '1406', '0014', '0001', '0001', '0001', '0001', '0001', '0001', '0013', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0012', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'1405', '1407', '1411', '1404', '1409', '1415', '1404', '1401', '0014', '0001', '0001', '0001', '0001', '0001', '0001', '0013', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0012', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1403', '1409', '1400', '1402', '1413', '1414', '1406', '1406', '0014', '0001', '0001', '0001', '0001', '0001', '0001', '0013', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0012', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['1405', '1407', '1411', '1404', '1409', '1415', '1404', '1401', '0014', '0001', '0001', '0001', '0001', '0001', '0001', '0013', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0015', '0001', '0001', '0001', '0012', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>4</v>
@@ -9141,35 +9148,35 @@
       </c>
       <c r="F37" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="G37" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="H37" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1400</v>
+        <v>1411</v>
       </c>
       <c r="I37" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="J37" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="K37" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="L37" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="M37" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="N37" s="19" t="s">
         <v>26</v>
@@ -9344,11 +9351,11 @@
     <row r="38" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B38" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1409', '1410', '1406', '1400', '1411', '1409', '1409', '1400', '0002', '1413', '1413', '1404', '1402', '1414', '1407', '1409', '1410', '1406', '1408', '0002', '1411', '1413', '1411', '1402', '0002', '1412', '1404', '1409', '1415', '1414', '1407', '1404', '1401', '0002', '1414', '1414', '1401', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'1400', '1413', '1415', '1402', '1404', '1404', '1406', '1403', '0002', '1415', '1406', '1407', '1403', '1401', '1404', '1409', '1407', '1400', '1410', '0002', '1403', '1413', '1412', '1407', '0002', '1403', '1404', '1412', '1400', '1407', '1413', '1401', '1406', '0002', '1412', '1406', '1414', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1409', '1410', '1406', '1400', '1411', '1409', '1409', '1400', '0002', '1413', '1413', '1404', '1402', '1414', '1407', '1409', '1410', '1406', '1408', '0002', '1411', '1413', '1411', '1402', '0002', '1412', '1404', '1409', '1415', '1414', '1407', '1404', '1401', '0002', '1414', '1414', '1401', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['1400', '1413', '1415', '1402', '1404', '1404', '1406', '1403', '0002', '1415', '1406', '1407', '1403', '1401', '1404', '1409', '1407', '1400', '1410', '0002', '1403', '1413', '1412', '1407', '0002', '1403', '1404', '1412', '1400', '1407', '1413', '1401', '1406', '0002', '1412', '1406', '1414', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>4</v>
@@ -9358,62 +9365,62 @@
       </c>
       <c r="F38" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1409</v>
+        <v>1400</v>
       </c>
       <c r="G38" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="H38" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1406</v>
+        <v>1415</v>
       </c>
       <c r="I38" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="J38" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1411</v>
+        <v>1404</v>
       </c>
       <c r="K38" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="L38" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="M38" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="N38" s="19" t="s">
         <v>22</v>
       </c>
       <c r="O38" s="17" t="str">
         <f t="shared" ref="O38:W40" ca="1" si="22">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="P38" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="Q38" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="R38" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="S38" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1414</v>
+        <v>1401</v>
       </c>
       <c r="T38" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="U38" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -9421,22 +9428,22 @@
       </c>
       <c r="V38" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="W38" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="X38" s="17" t="str">
-        <f t="shared" ref="X38:AD40" ca="1" si="23">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
-        <v>1408</v>
+        <f t="shared" ref="X38:AC40" ca="1" si="23">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
+        <v>1410</v>
       </c>
       <c r="Y38" s="19" t="s">
         <v>22</v>
       </c>
       <c r="Z38" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="AA38" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -9444,18 +9451,18 @@
       </c>
       <c r="AB38" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="AC38" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>1402</v>
+        <v>1407</v>
       </c>
       <c r="AD38" s="19" t="s">
         <v>22</v>
       </c>
       <c r="AE38" s="17" t="str">
-        <f t="shared" ref="AE37:AL40" ca="1" si="24">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
-        <v>1412</v>
+        <f t="shared" ref="AE38:AL40" ca="1" si="24">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
+        <v>1403</v>
       </c>
       <c r="AF38" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -9463,42 +9470,42 @@
       </c>
       <c r="AG38" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="AH38" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1415</v>
+        <v>1400</v>
       </c>
       <c r="AI38" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1414</v>
+        <v>1407</v>
       </c>
       <c r="AJ38" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1407</v>
+        <v>1413</v>
       </c>
       <c r="AK38" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="AL38" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1401</v>
+        <v>1406</v>
       </c>
       <c r="AM38" s="13" t="s">
         <v>22</v>
       </c>
       <c r="AN38" s="17" t="str">
         <f t="shared" ca="1" si="9"/>
+        <v>1412</v>
+      </c>
+      <c r="AO38" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1406</v>
+      </c>
+      <c r="AP38" s="17" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>1414</v>
-      </c>
-      <c r="AO38" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1414</v>
-      </c>
-      <c r="AP38" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1401</v>
       </c>
       <c r="AQ38" s="19" t="s">
         <v>22</v>
@@ -9586,11 +9593,11 @@
     <row r="39" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1413', '1401', '1404', '1401', '1405', '1414', '1410', '1413', '0002', '1409', '1406', '1406', '1409', '1408', '1414', '1400', '1408', '1403', '1401', '0002', '1400', '1403', '1406', '1407', '0002', '1408', '1411', '1411', '1414', '1401', '1403', '1400', '1400', '0002', '1405', '1400', '1404', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'1403', '1409', '1414', '1411', '1408', '1412', '1405', '1412', '0002', '1409', '1406', '1414', '1412', '1403', '1407', '1413', '1401', '1408', '1401', '0002', '1403', '1407', '1400', '1404', '0002', '1413', '1414', '1405', '1404', '1401', '1412', '1414', '1401', '0002', '1400', '1402', '1403', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1413', '1401', '1404', '1401', '1405', '1414', '1410', '1413', '0002', '1409', '1406', '1406', '1409', '1408', '1414', '1400', '1408', '1403', '1401', '0002', '1400', '1403', '1406', '1407', '0002', '1408', '1411', '1411', '1414', '1401', '1403', '1400', '1400', '0002', '1405', '1400', '1404', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['1403', '1409', '1414', '1411', '1408', '1412', '1405', '1412', '0002', '1409', '1406', '1414', '1412', '1403', '1407', '1413', '1401', '1408', '1401', '0002', '1403', '1407', '1400', '1404', '0002', '1413', '1414', '1405', '1404', '1401', '1412', '1414', '1401', '0002', '1400', '1402', '1403', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>4</v>
@@ -9600,35 +9607,35 @@
       </c>
       <c r="F39" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1413</v>
+        <v>1403</v>
       </c>
       <c r="G39" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1401</v>
+        <v>1409</v>
       </c>
       <c r="H39" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1404</v>
+        <v>1414</v>
       </c>
       <c r="I39" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1401</v>
+        <v>1411</v>
       </c>
       <c r="J39" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="K39" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="L39" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="M39" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="N39" s="19" t="s">
         <v>22</v>
@@ -9643,31 +9650,31 @@
       </c>
       <c r="Q39" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1406</v>
+        <v>1414</v>
       </c>
       <c r="R39" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="S39" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="T39" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1414</v>
+        <v>1407</v>
       </c>
       <c r="U39" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1400</v>
+        <v>1413</v>
       </c>
       <c r="V39" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="W39" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="X39" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -9678,38 +9685,38 @@
       </c>
       <c r="Z39" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="AA39" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="AB39" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="AC39" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="AD39" s="19" t="s">
         <v>22</v>
       </c>
       <c r="AE39" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1408</v>
+        <v>1413</v>
       </c>
       <c r="AF39" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="AG39" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="AH39" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1414</v>
+        <v>1404</v>
       </c>
       <c r="AI39" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -9717,30 +9724,30 @@
       </c>
       <c r="AJ39" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1403</v>
+        <v>1412</v>
       </c>
       <c r="AK39" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1400</v>
+        <v>1414</v>
       </c>
       <c r="AL39" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="AM39" s="13" t="s">
         <v>22</v>
       </c>
       <c r="AN39" s="17" t="str">
         <f t="shared" ref="AN39:AP42" ca="1" si="25">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="AO39" s="17" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="AP39" s="17" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="AQ39" s="19" t="s">
         <v>22</v>
@@ -9828,11 +9835,11 @@
     <row r="40" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'1411', '1412', '1400', '1408', '1404', '1408', '1409', '1414', '0002', '1402', '1414', '1415', '1406', '1407', '1411', '1410', '1414', '1407', '1404', '0002', '1412', '1401', '1412', '1411', '0002', '1411', '1406', '1408', '1408', '1404', '1409', '1400', '1404', '0002', '1411', '1414', '1409', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0308', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'1411', '1403', '1405', '1415', '1404', '1404', '1411', '1402', '0002', '1409', '1402', '1400', '1400', '1406', '1409', '1404', '1408', '1408', '1403', '0002', '1404', '1414', '1404', '1405', '0002', '1413', '1409', '1411', '1414', '1401', '1407', '1407', '1408', '0002', '1403', '1409', '1402', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0308', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['1411', '1412', '1400', '1408', '1404', '1408', '1409', '1414', '0002', '1402', '1414', '1415', '1406', '1407', '1411', '1410', '1414', '1407', '1404', '0002', '1412', '1401', '1412', '1411', '0002', '1411', '1406', '1408', '1408', '1404', '1409', '1400', '1404', '0002', '1411', '1414', '1409', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0308', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['1411', '1403', '1405', '1415', '1404', '1404', '1411', '1402', '0002', '1409', '1402', '1400', '1400', '1406', '1409', '1404', '1408', '1408', '1403', '0002', '1404', '1414', '1404', '1405', '0002', '1413', '1409', '1411', '1414', '1401', '1407', '1407', '1408', '0002', '1403', '1409', '1402', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0308', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>4</v>
@@ -9846,15 +9853,15 @@
       </c>
       <c r="G40" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1412</v>
+        <v>1403</v>
       </c>
       <c r="H40" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1400</v>
+        <v>1405</v>
       </c>
       <c r="I40" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1408</v>
+        <v>1415</v>
       </c>
       <c r="J40" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -9862,127 +9869,127 @@
       </c>
       <c r="K40" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="L40" s="17" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="M40" s="17" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1414</v>
+        <v>1402</v>
       </c>
       <c r="N40" s="19" t="s">
         <v>22</v>
       </c>
       <c r="O40" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1402</v>
+        <v>1409</v>
       </c>
       <c r="P40" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1414</v>
+        <v>1402</v>
       </c>
       <c r="Q40" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1415</v>
+        <v>1400</v>
       </c>
       <c r="R40" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="S40" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="T40" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="U40" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="V40" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="W40" s="17" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="X40" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="Y40" s="13" t="s">
         <v>22</v>
       </c>
       <c r="Z40" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>1412</v>
+        <v>1404</v>
       </c>
       <c r="AA40" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>1401</v>
+        <v>1414</v>
       </c>
       <c r="AB40" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>1412</v>
+        <v>1404</v>
       </c>
       <c r="AC40" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="AD40" s="19" t="s">
         <v>22</v>
       </c>
       <c r="AE40" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="AF40" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="AG40" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="AH40" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1408</v>
+        <v>1414</v>
       </c>
       <c r="AI40" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="AJ40" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="AK40" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1400</v>
+        <v>1407</v>
       </c>
       <c r="AL40" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="AM40" s="13" t="s">
         <v>22</v>
       </c>
       <c r="AN40" s="17" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="AO40" s="17" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="AP40" s="17" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>1409</v>
+        <v>1402</v>
       </c>
       <c r="AQ40" s="19" t="s">
         <v>22</v>
@@ -10070,11 +10077,11 @@
     <row r="41" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'0001', '0001', '0001', '0001', '0001', '0001', '0011', '0001', '0013', '0001', '0001', '0011', '0001', '0001', '0001', '0001', '0011', '0001', '0001', '0013', '0001', '0011', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0009', '1404', '1400', '1403', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'0001', '0001', '0001', '0001', '0001', '0001', '0011', '0001', '0013', '0001', '0001', '0011', '0001', '0001', '0001', '0001', '0011', '0001', '0001', '0013', '0001', '0011', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0009', '1403', '1410', '1403', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['0001', '0001', '0001', '0001', '0001', '0001', '0011', '0001', '0013', '0001', '0001', '0011', '0001', '0001', '0001', '0001', '0011', '0001', '0001', '0013', '0001', '0011', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0009', '1404', '1400', '1403', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0001', '0001', '0001', '0001', '0001', '0001', '0011', '0001', '0013', '0001', '0001', '0011', '0001', '0001', '0001', '0001', '0011', '0001', '0001', '0013', '0001', '0011', '0001', '0001', '0013', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0009', '1403', '1410', '1403', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>4</v>
@@ -10186,11 +10193,11 @@
       </c>
       <c r="AN41" s="17" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="AO41" s="17" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>1400</v>
+        <v>1410</v>
       </c>
       <c r="AP41" s="17" t="str">
         <f t="shared" ca="1" si="25"/>
@@ -10282,11 +10289,11 @@
     <row r="42" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B42" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'0011', '0011', '1404', '1409', '1402', '1412', '0002', '1411', '1411', '1407', '1410', '0002', '1411', '1404', '1406', '1403', '0002', '1400', '1411', '1412', '1415', '0002', '1401', '1405', '1402', '1400', '1403', '1412', '1403', '1408', '1405', '1410', '1409', '1401', '1403', '1415', '1405', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0308', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'0011', '0011', '1414', '1412', '1415', '1408', '0002', '1408', '1415', '1412', '1410', '0002', '1412', '1412', '1409', '1411', '0002', '1401', '1412', '1404', '1414', '0002', '1414', '1402', '1407', '1404', '1407', '1402', '1402', '1402', '1413', '1410', '1407', '1414', '1408', '1401', '1400', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0308', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>['0011', '0011', '1404', '1409', '1402', '1412', '0002', '1411', '1411', '1407', '1410', '0002', '1411', '1404', '1406', '1403', '0002', '1400', '1411', '1412', '1415', '0002', '1401', '1405', '1402', '1400', '1403', '1412', '1403', '1408', '1405', '1410', '1409', '1401', '1403', '1415', '1405', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0308', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0011', '0011', '1414', '1412', '1415', '1408', '0002', '1408', '1415', '1412', '1410', '0002', '1412', '1412', '1409', '1411', '0002', '1401', '1412', '1404', '1414', '0002', '1414', '1402', '1407', '1404', '1407', '1402', '1402', '1402', '1413', '1410', '1407', '1414', '1408', '1401', '1400', '0002', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0308', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>4</v>
@@ -10302,34 +10309,34 @@
       </c>
       <c r="H42" s="17" t="str">
         <f t="shared" ref="H42:O42" ca="1" si="26">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
-        <v>1404</v>
+        <v>1414</v>
       </c>
       <c r="I42" s="17" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="J42" s="17" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>1402</v>
+        <v>1415</v>
       </c>
       <c r="K42" s="17" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="L42" s="19" t="s">
         <v>22</v>
       </c>
       <c r="M42" s="17" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="N42" s="17" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>1411</v>
+        <v>1415</v>
       </c>
       <c r="O42" s="17" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>1407</v>
+        <v>1412</v>
       </c>
       <c r="P42" s="17" t="str">
         <f t="shared" ref="P42:Y42" ca="1" si="27">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
@@ -10340,77 +10347,77 @@
       </c>
       <c r="R42" s="17" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="S42" s="17" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>1404</v>
+        <v>1412</v>
       </c>
       <c r="T42" s="17" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="U42" s="17" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>1403</v>
+        <v>1411</v>
       </c>
       <c r="V42" s="19" t="s">
         <v>22</v>
       </c>
       <c r="W42" s="17" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="X42" s="17" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="Y42" s="17" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>1412</v>
+        <v>1404</v>
       </c>
       <c r="Z42" s="17" t="str">
         <f t="shared" ref="Z42:AM42" ca="1" si="28">CONCATENATE("14",TEXT(RANDBETWEEN(0,15),"00"))</f>
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="AA42" s="19" t="s">
         <v>22</v>
       </c>
       <c r="AB42" s="17" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>1401</v>
+        <v>1414</v>
       </c>
       <c r="AC42" s="17" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="AD42" s="17" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>1402</v>
+        <v>1407</v>
       </c>
       <c r="AE42" s="17" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="AF42" s="17" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="AG42" s="17" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>1412</v>
+        <v>1402</v>
       </c>
       <c r="AH42" s="17" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="AI42" s="17" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="AJ42" s="17" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>1405</v>
+        <v>1413</v>
       </c>
       <c r="AK42" s="17" t="str">
         <f t="shared" ca="1" si="28"/>
@@ -10418,23 +10425,23 @@
       </c>
       <c r="AL42" s="17" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="AM42" s="17" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>1401</v>
+        <v>1414</v>
       </c>
       <c r="AN42" s="17" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="AO42" s="17" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>1415</v>
+        <v>1401</v>
       </c>
       <c r="AP42" s="17" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="AQ42" s="19" t="s">
         <v>22</v>
